--- a/Copy of gantt-chart TIMELINE.xlsx
+++ b/Copy of gantt-chart TIMELINE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lw\CRITICAL STATE\GANTT-CHART-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8929A7-548C-44B0-9B06-A71967F1176D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A2677F-3D06-4339-B8EF-E7DF27A60EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$73</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -419,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="216">
   <si>
     <t>RICEF BY LEUWITEX</t>
   </si>
@@ -1810,6 +1810,18 @@
   </si>
   <si>
     <t>BELAJAR MENDAFTARKAN API SAP</t>
+  </si>
+  <si>
+    <t>BELAJAR MENGEDIT FORM SAP</t>
+  </si>
+  <si>
+    <t>Modifikasi Form Invoice (Barang Bekas, Avfal, BS, Maklon, Masker)</t>
+  </si>
+  <si>
+    <t>Modifikasi Form Surat Jalan (Barang Bekas, Avfal, BS, Maklon, Masker)</t>
+  </si>
+  <si>
+    <t>SIT</t>
   </si>
 </sst>
 </file>
@@ -2631,21 +2643,14 @@
     <xf numFmtId="49" fontId="49" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="168" fontId="20" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="28" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2660,17 +2665,24 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3463,11 +3475,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN101"/>
+  <dimension ref="A1:BN105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3494,27 +3506,27 @@
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="I1" s="79"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="101"/>
-      <c r="AB1" s="101"/>
-      <c r="AC1" s="101"/>
-      <c r="AD1" s="101"/>
-      <c r="AE1" s="101"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="111"/>
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="111"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1">
       <c r="A2" s="48"/>
@@ -3551,11 +3563,11 @@
       <c r="B4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="102">
+      <c r="C4" s="112">
         <v>45986</v>
       </c>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
       <c r="F4" s="53"/>
       <c r="G4" s="54" t="s">
         <v>2</v>
@@ -3564,182 +3576,182 @@
         <v>1</v>
       </c>
       <c r="J4" s="53"/>
-      <c r="K4" s="103" t="str">
+      <c r="K4" s="108" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="103" t="str">
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="108" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="103" t="str">
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="108" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="105"/>
-      <c r="AF4" s="103" t="str">
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="109"/>
+      <c r="AC4" s="109"/>
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="110"/>
+      <c r="AF4" s="108" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="105"/>
-      <c r="AM4" s="103" t="str">
+      <c r="AG4" s="109"/>
+      <c r="AH4" s="109"/>
+      <c r="AI4" s="109"/>
+      <c r="AJ4" s="109"/>
+      <c r="AK4" s="109"/>
+      <c r="AL4" s="110"/>
+      <c r="AM4" s="108" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="105"/>
-      <c r="AT4" s="103" t="str">
+      <c r="AN4" s="109"/>
+      <c r="AO4" s="109"/>
+      <c r="AP4" s="109"/>
+      <c r="AQ4" s="109"/>
+      <c r="AR4" s="109"/>
+      <c r="AS4" s="110"/>
+      <c r="AT4" s="108" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="104"/>
-      <c r="AZ4" s="105"/>
-      <c r="BA4" s="103" t="str">
+      <c r="AU4" s="109"/>
+      <c r="AV4" s="109"/>
+      <c r="AW4" s="109"/>
+      <c r="AX4" s="109"/>
+      <c r="AY4" s="109"/>
+      <c r="AZ4" s="110"/>
+      <c r="BA4" s="108" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="104"/>
-      <c r="BG4" s="105"/>
-      <c r="BH4" s="103" t="str">
+      <c r="BB4" s="109"/>
+      <c r="BC4" s="109"/>
+      <c r="BD4" s="109"/>
+      <c r="BE4" s="109"/>
+      <c r="BF4" s="109"/>
+      <c r="BG4" s="110"/>
+      <c r="BH4" s="108" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="104"/>
-      <c r="BJ4" s="104"/>
-      <c r="BK4" s="104"/>
-      <c r="BL4" s="104"/>
-      <c r="BM4" s="104"/>
-      <c r="BN4" s="105"/>
+      <c r="BI4" s="109"/>
+      <c r="BJ4" s="109"/>
+      <c r="BK4" s="109"/>
+      <c r="BL4" s="109"/>
+      <c r="BM4" s="109"/>
+      <c r="BN4" s="110"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1">
       <c r="A5" s="53"/>
       <c r="B5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="53"/>
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
       <c r="J5" s="53"/>
-      <c r="K5" s="106">
+      <c r="K5" s="104">
         <f>K6</f>
         <v>45985</v>
       </c>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="106">
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="104">
         <f>R6</f>
         <v>45992</v>
       </c>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="106">
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="104">
         <f>Y6</f>
         <v>45999</v>
       </c>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="108"/>
-      <c r="AF5" s="106">
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="105"/>
+      <c r="AC5" s="105"/>
+      <c r="AD5" s="105"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="104">
         <f>AF6</f>
         <v>46006</v>
       </c>
-      <c r="AG5" s="107"/>
-      <c r="AH5" s="107"/>
-      <c r="AI5" s="107"/>
-      <c r="AJ5" s="107"/>
-      <c r="AK5" s="107"/>
-      <c r="AL5" s="108"/>
-      <c r="AM5" s="106">
+      <c r="AG5" s="105"/>
+      <c r="AH5" s="105"/>
+      <c r="AI5" s="105"/>
+      <c r="AJ5" s="105"/>
+      <c r="AK5" s="105"/>
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="104">
         <f>AM6</f>
         <v>46013</v>
       </c>
-      <c r="AN5" s="107"/>
-      <c r="AO5" s="107"/>
-      <c r="AP5" s="107"/>
-      <c r="AQ5" s="107"/>
-      <c r="AR5" s="107"/>
-      <c r="AS5" s="108"/>
-      <c r="AT5" s="106">
+      <c r="AN5" s="105"/>
+      <c r="AO5" s="105"/>
+      <c r="AP5" s="105"/>
+      <c r="AQ5" s="105"/>
+      <c r="AR5" s="105"/>
+      <c r="AS5" s="106"/>
+      <c r="AT5" s="104">
         <f>AT6</f>
         <v>46020</v>
       </c>
-      <c r="AU5" s="107"/>
-      <c r="AV5" s="107"/>
-      <c r="AW5" s="107"/>
-      <c r="AX5" s="107"/>
-      <c r="AY5" s="107"/>
-      <c r="AZ5" s="108"/>
-      <c r="BA5" s="106">
+      <c r="AU5" s="105"/>
+      <c r="AV5" s="105"/>
+      <c r="AW5" s="105"/>
+      <c r="AX5" s="105"/>
+      <c r="AY5" s="105"/>
+      <c r="AZ5" s="106"/>
+      <c r="BA5" s="104">
         <f>BA6</f>
         <v>46027</v>
       </c>
-      <c r="BB5" s="107"/>
-      <c r="BC5" s="107"/>
-      <c r="BD5" s="107"/>
-      <c r="BE5" s="107"/>
-      <c r="BF5" s="107"/>
-      <c r="BG5" s="108"/>
-      <c r="BH5" s="106">
+      <c r="BB5" s="105"/>
+      <c r="BC5" s="105"/>
+      <c r="BD5" s="105"/>
+      <c r="BE5" s="105"/>
+      <c r="BF5" s="105"/>
+      <c r="BG5" s="106"/>
+      <c r="BH5" s="104">
         <f>BH6</f>
         <v>46034</v>
       </c>
-      <c r="BI5" s="107"/>
-      <c r="BJ5" s="107"/>
-      <c r="BK5" s="107"/>
-      <c r="BL5" s="107"/>
-      <c r="BM5" s="107"/>
-      <c r="BN5" s="108"/>
+      <c r="BI5" s="105"/>
+      <c r="BJ5" s="105"/>
+      <c r="BK5" s="105"/>
+      <c r="BL5" s="105"/>
+      <c r="BM5" s="105"/>
+      <c r="BN5" s="106"/>
     </row>
     <row r="6" spans="1:66">
       <c r="A6" s="53"/>
@@ -4241,15 +4253,15 @@
       </c>
       <c r="C8" s="62"/>
       <c r="D8" s="63"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="112" t="str">
-        <f t="shared" ref="E8:F20" si="4">IF(ISBLANK(E8)," - ",IF(G8=0,E8,E8+G8-1))</f>
+      <c r="E8" s="101"/>
+      <c r="F8" s="102" t="str">
+        <f t="shared" ref="F8:F24" si="4">IF(ISBLANK(E8)," - ",IF(G8=0,E8,E8+G8-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G8" s="64"/>
       <c r="H8" s="65"/>
       <c r="I8" s="85" t="str">
-        <f t="shared" ref="I8:I67" si="5">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I71" si="5">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="86"/>
@@ -4312,7 +4324,7 @@
     </row>
     <row r="9" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A9" s="66" t="str">
-        <f t="shared" ref="A9:A42" si="6">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A9:A46" si="6">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B9" s="67" t="s">
@@ -4510,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="88">
-        <f t="shared" ref="I11:I20" si="7">IF(OR(F11=0,E11=0)," - ",NETWORKDAYS(E11,F11))</f>
+        <f t="shared" ref="I11:I24" si="7">IF(OR(F11=0,E11=0)," - ",NETWORKDAYS(E11,F11))</f>
         <v>5</v>
       </c>
       <c r="J11" s="89"/>
@@ -4666,7 +4678,7 @@
       <c r="B13" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="C13" s="113" t="s">
+      <c r="C13" s="103" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="68"/>
@@ -4838,28 +4850,28 @@
         <v>1.7</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="C15" s="45" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="68"/>
       <c r="E15" s="69">
-        <v>46031</v>
+        <v>46028</v>
       </c>
       <c r="F15" s="70">
-        <f t="shared" si="4"/>
-        <v>46040</v>
+        <f t="shared" ref="F15" si="12">IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
+        <v>46030</v>
       </c>
       <c r="G15" s="71">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H15" s="72">
         <v>0</v>
       </c>
       <c r="I15" s="88">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f t="shared" ref="I15" si="13">IF(OR(F15=0,E15=0)," - ",NETWORKDAYS(E15,F15))</f>
+        <v>3</v>
       </c>
       <c r="J15" s="89"/>
       <c r="K15" s="66"/>
@@ -4924,29 +4936,29 @@
         <f t="shared" si="6"/>
         <v>1.8</v>
       </c>
-      <c r="B16" s="100" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="113" t="s">
-        <v>16</v>
+      <c r="B16" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>15</v>
       </c>
       <c r="D16" s="68"/>
       <c r="E16" s="69">
-        <v>45676</v>
+        <v>46031</v>
       </c>
       <c r="F16" s="70">
         <f t="shared" si="4"/>
-        <v>45683</v>
+        <v>46040</v>
       </c>
       <c r="G16" s="71">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" s="72">
         <v>0</v>
       </c>
       <c r="I16" s="88">
-        <f>IF(OR(F16=0,E16=0)," - ",NETWORKDAYS(E16,F16))</f>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="J16" s="89"/>
       <c r="K16" s="66"/>
@@ -5011,29 +5023,27 @@
         <f t="shared" si="6"/>
         <v>1.9</v>
       </c>
-      <c r="B17" s="98" t="s">
-        <v>178</v>
+      <c r="B17" s="67" t="s">
+        <v>212</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="68"/>
-      <c r="E17" s="69">
-        <v>45676</v>
-      </c>
-      <c r="F17" s="70">
-        <f t="shared" si="4"/>
-        <v>45683</v>
+      <c r="E17" s="69"/>
+      <c r="F17" s="70" t="str">
+        <f t="shared" ref="F17" si="14">IF(ISBLANK(E17)," - ",IF(G17=0,E17,E17+G17-1))</f>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="G17" s="71">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" s="72">
         <v>0</v>
       </c>
-      <c r="I17" s="88">
-        <f t="shared" si="7"/>
-        <v>5</v>
+      <c r="I17" s="88" t="str">
+        <f t="shared" ref="I17" si="15">IF(OR(F17=0,E17=0)," - ",NETWORKDAYS(E17,F17))</f>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="J17" s="89"/>
       <c r="K17" s="66"/>
@@ -5099,29 +5109,26 @@
         <v>1.10</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="C18" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="68"/>
-      <c r="E18" s="69">
-        <f>F16+1</f>
-        <v>45684</v>
-      </c>
-      <c r="F18" s="70">
-        <f t="shared" si="4"/>
-        <v>45691</v>
+      <c r="E18" s="69"/>
+      <c r="F18" s="70" t="str">
+        <f t="shared" ref="F18" si="16">IF(ISBLANK(E18)," - ",IF(G18=0,E18,E18+G18-1))</f>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="G18" s="71">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" s="72">
         <v>0</v>
       </c>
-      <c r="I18" s="88">
-        <f t="shared" si="7"/>
-        <v>6</v>
+      <c r="I18" s="88" t="str">
+        <f t="shared" ref="I18" si="17">IF(OR(F18=0,E18=0)," - ",NETWORKDAYS(E18,F18))</f>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="J18" s="89"/>
       <c r="K18" s="66"/>
@@ -5181,35 +5188,32 @@
       <c r="BM18" s="66"/>
       <c r="BN18" s="66"/>
     </row>
-    <row r="19" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="19" spans="1:66" s="45" customFormat="1" ht="24">
       <c r="A19" s="66" t="str">
         <f t="shared" si="6"/>
         <v>1.11</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" s="68"/>
-      <c r="E19" s="69">
-        <f>F17+1</f>
-        <v>45684</v>
-      </c>
-      <c r="F19" s="70">
-        <f t="shared" si="4"/>
-        <v>45691</v>
+      <c r="E19" s="69"/>
+      <c r="F19" s="70" t="str">
+        <f t="shared" ref="F19" si="18">IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="G19" s="71">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" s="72">
         <v>0</v>
       </c>
-      <c r="I19" s="88">
-        <f t="shared" si="7"/>
-        <v>6</v>
+      <c r="I19" s="88" t="str">
+        <f t="shared" ref="I19" si="19">IF(OR(F19=0,E19=0)," - ",NETWORKDAYS(E19,F19))</f>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="J19" s="89"/>
       <c r="K19" s="66"/>
@@ -5274,20 +5278,19 @@
         <f t="shared" si="6"/>
         <v>1.12</v>
       </c>
-      <c r="B20" s="67" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" s="45" t="s">
+      <c r="B20" s="100" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="103" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="68"/>
       <c r="E20" s="69">
-        <f>F18+1</f>
-        <v>45692</v>
+        <v>45676</v>
       </c>
       <c r="F20" s="70">
         <f t="shared" si="4"/>
-        <v>45699</v>
+        <v>45683</v>
       </c>
       <c r="G20" s="71">
         <v>8</v>
@@ -5296,8 +5299,8 @@
         <v>0</v>
       </c>
       <c r="I20" s="88">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f>IF(OR(F20=0,E20=0)," - ",NETWORKDAYS(E20,F20))</f>
+        <v>5</v>
       </c>
       <c r="J20" s="89"/>
       <c r="K20" s="66"/>
@@ -5362,20 +5365,19 @@
         <f t="shared" si="6"/>
         <v>1.13</v>
       </c>
-      <c r="B21" s="67" t="s">
-        <v>188</v>
+      <c r="B21" s="98" t="s">
+        <v>178</v>
       </c>
       <c r="C21" s="45" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="68"/>
       <c r="E21" s="69">
-        <f>F19+1</f>
-        <v>45692</v>
+        <v>45676</v>
       </c>
       <c r="F21" s="70">
-        <f t="shared" ref="F21" si="12">IF(ISBLANK(E21)," - ",IF(G21=0,E21,E21+G21-1))</f>
-        <v>45699</v>
+        <f t="shared" si="4"/>
+        <v>45683</v>
       </c>
       <c r="G21" s="71">
         <v>8</v>
@@ -5384,8 +5386,8 @@
         <v>0</v>
       </c>
       <c r="I21" s="88">
-        <f t="shared" ref="I21" si="13">IF(OR(F21=0,E21=0)," - ",NETWORKDAYS(E21,F21))</f>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="J21" s="89"/>
       <c r="K21" s="66"/>
@@ -5450,20 +5452,20 @@
         <f t="shared" si="6"/>
         <v>1.14</v>
       </c>
-      <c r="B22" s="99" t="s">
-        <v>189</v>
+      <c r="B22" s="67" t="s">
+        <v>180</v>
       </c>
       <c r="C22" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="68"/>
       <c r="E22" s="69">
-        <f>F20+1</f>
-        <v>45700</v>
+        <f t="shared" ref="E22:E46" si="20">F20+1</f>
+        <v>45684</v>
       </c>
       <c r="F22" s="70">
-        <f t="shared" ref="F22" si="14">IF(ISBLANK(E22)," - ",IF(G22=0,E22,E22+G22-1))</f>
-        <v>45707</v>
+        <f t="shared" si="4"/>
+        <v>45691</v>
       </c>
       <c r="G22" s="71">
         <v>8</v>
@@ -5472,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="88">
-        <f t="shared" ref="I22" si="15">IF(OR(F22=0,E22=0)," - ",NETWORKDAYS(E22,F22))</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J22" s="89"/>
@@ -5538,20 +5540,20 @@
         <f t="shared" si="6"/>
         <v>1.15</v>
       </c>
-      <c r="B23" s="99" t="s">
-        <v>190</v>
+      <c r="B23" s="67" t="s">
+        <v>181</v>
       </c>
       <c r="C23" s="45" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="68"/>
       <c r="E23" s="69">
-        <f>F21+1</f>
-        <v>45700</v>
+        <f t="shared" si="20"/>
+        <v>45684</v>
       </c>
       <c r="F23" s="70">
-        <f t="shared" ref="F23:F42" si="16">IF(ISBLANK(E23)," - ",IF(G23=0,E23,E23+G23-1))</f>
-        <v>45707</v>
+        <f t="shared" si="4"/>
+        <v>45691</v>
       </c>
       <c r="G23" s="71">
         <v>8</v>
@@ -5560,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="88">
-        <f t="shared" ref="I23:I42" si="17">IF(OR(F23=0,E23=0)," - ",NETWORKDAYS(E23,F23))</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J23" s="89"/>
@@ -5626,20 +5628,20 @@
         <f t="shared" si="6"/>
         <v>1.16</v>
       </c>
-      <c r="B24" s="99" t="s">
-        <v>191</v>
+      <c r="B24" s="67" t="s">
+        <v>182</v>
       </c>
       <c r="C24" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="68"/>
       <c r="E24" s="69">
-        <f>F22+1</f>
-        <v>45708</v>
+        <f t="shared" si="20"/>
+        <v>45692</v>
       </c>
       <c r="F24" s="70">
-        <f t="shared" si="16"/>
-        <v>45715</v>
+        <f t="shared" si="4"/>
+        <v>45699</v>
       </c>
       <c r="G24" s="71">
         <v>8</v>
@@ -5648,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J24" s="89"/>
@@ -5714,20 +5716,20 @@
         <f t="shared" si="6"/>
         <v>1.17</v>
       </c>
-      <c r="B25" s="99" t="s">
-        <v>192</v>
+      <c r="B25" s="67" t="s">
+        <v>188</v>
       </c>
       <c r="C25" s="45" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="68"/>
       <c r="E25" s="69">
-        <f>F23+1</f>
-        <v>45708</v>
+        <f t="shared" si="20"/>
+        <v>45692</v>
       </c>
       <c r="F25" s="70">
-        <f t="shared" si="16"/>
-        <v>45715</v>
+        <f t="shared" ref="F25" si="21">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
+        <v>45699</v>
       </c>
       <c r="G25" s="71">
         <v>8</v>
@@ -5736,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="88">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="I25" si="22">IF(OR(F25=0,E25=0)," - ",NETWORKDAYS(E25,F25))</f>
         <v>6</v>
       </c>
       <c r="J25" s="89"/>
@@ -5803,19 +5805,19 @@
         <v>1.18</v>
       </c>
       <c r="B26" s="99" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C26" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="68"/>
       <c r="E26" s="69">
-        <f>F24+1</f>
-        <v>45716</v>
+        <f t="shared" si="20"/>
+        <v>45700</v>
       </c>
       <c r="F26" s="70">
-        <f t="shared" si="16"/>
-        <v>45723</v>
+        <f t="shared" ref="F26" si="23">IF(ISBLANK(E26)," - ",IF(G26=0,E26,E26+G26-1))</f>
+        <v>45707</v>
       </c>
       <c r="G26" s="71">
         <v>8</v>
@@ -5824,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="88">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="I26" si="24">IF(OR(F26=0,E26=0)," - ",NETWORKDAYS(E26,F26))</f>
         <v>6</v>
       </c>
       <c r="J26" s="89"/>
@@ -5891,19 +5893,19 @@
         <v>1.19</v>
       </c>
       <c r="B27" s="99" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C27" s="45" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="68"/>
       <c r="E27" s="69">
-        <f>F25+1</f>
-        <v>45716</v>
+        <f t="shared" si="20"/>
+        <v>45700</v>
       </c>
       <c r="F27" s="70">
-        <f t="shared" si="16"/>
-        <v>45723</v>
+        <f t="shared" ref="F27:F46" si="25">IF(ISBLANK(E27)," - ",IF(G27=0,E27,E27+G27-1))</f>
+        <v>45707</v>
       </c>
       <c r="G27" s="71">
         <v>8</v>
@@ -5912,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="88">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="I27:I46" si="26">IF(OR(F27=0,E27=0)," - ",NETWORKDAYS(E27,F27))</f>
         <v>6</v>
       </c>
       <c r="J27" s="89"/>
@@ -5979,19 +5981,19 @@
         <v>1.20</v>
       </c>
       <c r="B28" s="99" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="68"/>
       <c r="E28" s="69">
-        <f>F26+1</f>
-        <v>45724</v>
+        <f t="shared" si="20"/>
+        <v>45708</v>
       </c>
       <c r="F28" s="70">
-        <f t="shared" si="16"/>
-        <v>45731</v>
+        <f t="shared" si="25"/>
+        <v>45715</v>
       </c>
       <c r="G28" s="71">
         <v>8</v>
@@ -6000,8 +6002,8 @@
         <v>0</v>
       </c>
       <c r="I28" s="88">
-        <f t="shared" si="17"/>
-        <v>5</v>
+        <f t="shared" si="26"/>
+        <v>6</v>
       </c>
       <c r="J28" s="89"/>
       <c r="K28" s="66"/>
@@ -6067,19 +6069,19 @@
         <v>1.21</v>
       </c>
       <c r="B29" s="99" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C29" s="45" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="68"/>
       <c r="E29" s="69">
-        <f>F27+1</f>
-        <v>45724</v>
+        <f t="shared" si="20"/>
+        <v>45708</v>
       </c>
       <c r="F29" s="70">
-        <f t="shared" si="16"/>
-        <v>45731</v>
+        <f t="shared" si="25"/>
+        <v>45715</v>
       </c>
       <c r="G29" s="71">
         <v>8</v>
@@ -6088,8 +6090,8 @@
         <v>0</v>
       </c>
       <c r="I29" s="88">
-        <f t="shared" si="17"/>
-        <v>5</v>
+        <f t="shared" si="26"/>
+        <v>6</v>
       </c>
       <c r="J29" s="89"/>
       <c r="K29" s="66"/>
@@ -6155,19 +6157,19 @@
         <v>1.22</v>
       </c>
       <c r="B30" s="99" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C30" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="68"/>
       <c r="E30" s="69">
-        <f>F28+1</f>
-        <v>45732</v>
+        <f t="shared" si="20"/>
+        <v>45716</v>
       </c>
       <c r="F30" s="70">
-        <f t="shared" si="16"/>
-        <v>45739</v>
+        <f t="shared" si="25"/>
+        <v>45723</v>
       </c>
       <c r="G30" s="71">
         <v>8</v>
@@ -6176,8 +6178,8 @@
         <v>0</v>
       </c>
       <c r="I30" s="88">
-        <f t="shared" si="17"/>
-        <v>5</v>
+        <f t="shared" si="26"/>
+        <v>6</v>
       </c>
       <c r="J30" s="89"/>
       <c r="K30" s="66"/>
@@ -6243,19 +6245,19 @@
         <v>1.23</v>
       </c>
       <c r="B31" s="99" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C31" s="45" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="68"/>
       <c r="E31" s="69">
-        <f>F29+1</f>
-        <v>45732</v>
+        <f t="shared" si="20"/>
+        <v>45716</v>
       </c>
       <c r="F31" s="70">
-        <f t="shared" si="16"/>
-        <v>45739</v>
+        <f t="shared" si="25"/>
+        <v>45723</v>
       </c>
       <c r="G31" s="71">
         <v>8</v>
@@ -6264,8 +6266,8 @@
         <v>0</v>
       </c>
       <c r="I31" s="88">
-        <f t="shared" si="17"/>
-        <v>5</v>
+        <f t="shared" si="26"/>
+        <v>6</v>
       </c>
       <c r="J31" s="89"/>
       <c r="K31" s="66"/>
@@ -6331,29 +6333,29 @@
         <v>1.24</v>
       </c>
       <c r="B32" s="99" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C32" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="68"/>
       <c r="E32" s="69">
-        <f>F30+1</f>
-        <v>45740</v>
+        <f t="shared" si="20"/>
+        <v>45724</v>
       </c>
       <c r="F32" s="70">
-        <f t="shared" si="16"/>
-        <v>45755</v>
+        <f t="shared" si="25"/>
+        <v>45731</v>
       </c>
       <c r="G32" s="71">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H32" s="72">
         <v>0</v>
       </c>
       <c r="I32" s="88">
-        <f t="shared" si="17"/>
-        <v>12</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
       <c r="J32" s="89"/>
       <c r="K32" s="66"/>
@@ -6419,29 +6421,29 @@
         <v>1.25</v>
       </c>
       <c r="B33" s="99" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C33" s="45" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="68"/>
       <c r="E33" s="69">
-        <f>F31+1</f>
-        <v>45740</v>
+        <f t="shared" si="20"/>
+        <v>45724</v>
       </c>
       <c r="F33" s="70">
-        <f t="shared" si="16"/>
-        <v>45755</v>
+        <f t="shared" si="25"/>
+        <v>45731</v>
       </c>
       <c r="G33" s="71">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H33" s="72">
         <v>0</v>
       </c>
       <c r="I33" s="88">
-        <f t="shared" si="17"/>
-        <v>12</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
       <c r="J33" s="89"/>
       <c r="K33" s="66"/>
@@ -6507,19 +6509,19 @@
         <v>1.26</v>
       </c>
       <c r="B34" s="99" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C34" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="68"/>
       <c r="E34" s="69">
-        <f>F32+1</f>
-        <v>45756</v>
+        <f t="shared" si="20"/>
+        <v>45732</v>
       </c>
       <c r="F34" s="70">
-        <f t="shared" si="16"/>
-        <v>45763</v>
+        <f t="shared" si="25"/>
+        <v>45739</v>
       </c>
       <c r="G34" s="71">
         <v>8</v>
@@ -6528,8 +6530,8 @@
         <v>0</v>
       </c>
       <c r="I34" s="88">
-        <f t="shared" si="17"/>
-        <v>6</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
       <c r="J34" s="89"/>
       <c r="K34" s="66"/>
@@ -6595,19 +6597,19 @@
         <v>1.27</v>
       </c>
       <c r="B35" s="99" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C35" s="45" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="68"/>
       <c r="E35" s="69">
-        <f>F33+1</f>
-        <v>45756</v>
+        <f t="shared" si="20"/>
+        <v>45732</v>
       </c>
       <c r="F35" s="70">
-        <f t="shared" si="16"/>
-        <v>45763</v>
+        <f t="shared" si="25"/>
+        <v>45739</v>
       </c>
       <c r="G35" s="71">
         <v>8</v>
@@ -6616,8 +6618,8 @@
         <v>0</v>
       </c>
       <c r="I35" s="88">
-        <f t="shared" si="17"/>
-        <v>6</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
       <c r="J35" s="89"/>
       <c r="K35" s="66"/>
@@ -6683,29 +6685,29 @@
         <v>1.28</v>
       </c>
       <c r="B36" s="99" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C36" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="68"/>
       <c r="E36" s="69">
-        <f>F34+1</f>
-        <v>45764</v>
+        <f t="shared" si="20"/>
+        <v>45740</v>
       </c>
       <c r="F36" s="70">
-        <f t="shared" si="16"/>
-        <v>45771</v>
+        <f t="shared" si="25"/>
+        <v>45755</v>
       </c>
       <c r="G36" s="71">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H36" s="72">
         <v>0</v>
       </c>
       <c r="I36" s="88">
-        <f t="shared" si="17"/>
-        <v>6</v>
+        <f t="shared" si="26"/>
+        <v>12</v>
       </c>
       <c r="J36" s="89"/>
       <c r="K36" s="66"/>
@@ -6771,29 +6773,29 @@
         <v>1.29</v>
       </c>
       <c r="B37" s="99" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="68"/>
       <c r="E37" s="69">
-        <f>F35+1</f>
-        <v>45764</v>
+        <f t="shared" si="20"/>
+        <v>45740</v>
       </c>
       <c r="F37" s="70">
-        <f t="shared" si="16"/>
-        <v>45771</v>
+        <f t="shared" si="25"/>
+        <v>45755</v>
       </c>
       <c r="G37" s="71">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H37" s="72">
         <v>0</v>
       </c>
       <c r="I37" s="88">
-        <f t="shared" si="17"/>
-        <v>6</v>
+        <f t="shared" si="26"/>
+        <v>12</v>
       </c>
       <c r="J37" s="89"/>
       <c r="K37" s="66"/>
@@ -6859,19 +6861,19 @@
         <v>1.30</v>
       </c>
       <c r="B38" s="99" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C38" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="68"/>
       <c r="E38" s="69">
-        <f>F36+1</f>
-        <v>45772</v>
+        <f t="shared" si="20"/>
+        <v>45756</v>
       </c>
       <c r="F38" s="70">
-        <f t="shared" si="16"/>
-        <v>45779</v>
+        <f t="shared" si="25"/>
+        <v>45763</v>
       </c>
       <c r="G38" s="71">
         <v>8</v>
@@ -6880,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>6</v>
       </c>
       <c r="J38" s="89"/>
@@ -6947,19 +6949,19 @@
         <v>1.31</v>
       </c>
       <c r="B39" s="99" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C39" s="45" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="68"/>
       <c r="E39" s="69">
-        <f>F37+1</f>
-        <v>45772</v>
+        <f t="shared" si="20"/>
+        <v>45756</v>
       </c>
       <c r="F39" s="70">
-        <f t="shared" si="16"/>
-        <v>45779</v>
+        <f t="shared" si="25"/>
+        <v>45763</v>
       </c>
       <c r="G39" s="71">
         <v>8</v>
@@ -6968,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>6</v>
       </c>
       <c r="J39" s="89"/>
@@ -7035,19 +7037,19 @@
         <v>1.32</v>
       </c>
       <c r="B40" s="99" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C40" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="68"/>
       <c r="E40" s="69">
-        <f>F38+1</f>
-        <v>45780</v>
+        <f t="shared" si="20"/>
+        <v>45764</v>
       </c>
       <c r="F40" s="70">
-        <f t="shared" si="16"/>
-        <v>45787</v>
+        <f t="shared" si="25"/>
+        <v>45771</v>
       </c>
       <c r="G40" s="71">
         <v>8</v>
@@ -7056,8 +7058,8 @@
         <v>0</v>
       </c>
       <c r="I40" s="88">
-        <f t="shared" si="17"/>
-        <v>5</v>
+        <f t="shared" si="26"/>
+        <v>6</v>
       </c>
       <c r="J40" s="89"/>
       <c r="K40" s="66"/>
@@ -7123,19 +7125,19 @@
         <v>1.33</v>
       </c>
       <c r="B41" s="99" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C41" s="45" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="68"/>
       <c r="E41" s="69">
-        <f>F39+1</f>
-        <v>45780</v>
+        <f t="shared" si="20"/>
+        <v>45764</v>
       </c>
       <c r="F41" s="70">
-        <f t="shared" si="16"/>
-        <v>45787</v>
+        <f t="shared" si="25"/>
+        <v>45771</v>
       </c>
       <c r="G41" s="71">
         <v>8</v>
@@ -7144,8 +7146,8 @@
         <v>0</v>
       </c>
       <c r="I41" s="88">
-        <f t="shared" si="17"/>
-        <v>5</v>
+        <f t="shared" si="26"/>
+        <v>6</v>
       </c>
       <c r="J41" s="89"/>
       <c r="K41" s="66"/>
@@ -7211,19 +7213,19 @@
         <v>1.34</v>
       </c>
       <c r="B42" s="99" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C42" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="68"/>
       <c r="E42" s="69">
-        <f>F40+1</f>
-        <v>45788</v>
+        <f t="shared" si="20"/>
+        <v>45772</v>
       </c>
       <c r="F42" s="70">
-        <f t="shared" si="16"/>
-        <v>45795</v>
+        <f t="shared" si="25"/>
+        <v>45779</v>
       </c>
       <c r="G42" s="71">
         <v>8</v>
@@ -7232,8 +7234,8 @@
         <v>0</v>
       </c>
       <c r="I42" s="88">
-        <f t="shared" si="17"/>
-        <v>5</v>
+        <f t="shared" si="26"/>
+        <v>6</v>
       </c>
       <c r="J42" s="89"/>
       <c r="K42" s="66"/>
@@ -7294,14 +7296,35 @@
       <c r="BN42" s="66"/>
     </row>
     <row r="43" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A43" s="66"/>
-      <c r="B43" s="67"/>
+      <c r="A43" s="66" t="str">
+        <f t="shared" si="6"/>
+        <v>1.35</v>
+      </c>
+      <c r="B43" s="99" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>15</v>
+      </c>
       <c r="D43" s="68"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="88"/>
+      <c r="E43" s="69">
+        <f t="shared" si="20"/>
+        <v>45772</v>
+      </c>
+      <c r="F43" s="70">
+        <f t="shared" si="25"/>
+        <v>45779</v>
+      </c>
+      <c r="G43" s="71">
+        <v>8</v>
+      </c>
+      <c r="H43" s="72">
+        <v>0</v>
+      </c>
+      <c r="I43" s="88">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
       <c r="J43" s="89"/>
       <c r="K43" s="66"/>
       <c r="L43" s="66"/>
@@ -7361,14 +7384,35 @@
       <c r="BN43" s="66"/>
     </row>
     <row r="44" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A44" s="66"/>
-      <c r="B44" s="67"/>
+      <c r="A44" s="66" t="str">
+        <f t="shared" si="6"/>
+        <v>1.36</v>
+      </c>
+      <c r="B44" s="99" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>16</v>
+      </c>
       <c r="D44" s="68"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="88"/>
+      <c r="E44" s="69">
+        <f t="shared" si="20"/>
+        <v>45780</v>
+      </c>
+      <c r="F44" s="70">
+        <f t="shared" si="25"/>
+        <v>45787</v>
+      </c>
+      <c r="G44" s="71">
+        <v>8</v>
+      </c>
+      <c r="H44" s="72">
+        <v>0</v>
+      </c>
+      <c r="I44" s="88">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
       <c r="J44" s="89"/>
       <c r="K44" s="66"/>
       <c r="L44" s="66"/>
@@ -7428,14 +7472,35 @@
       <c r="BN44" s="66"/>
     </row>
     <row r="45" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A45" s="66"/>
-      <c r="B45" s="67"/>
+      <c r="A45" s="66" t="str">
+        <f t="shared" si="6"/>
+        <v>1.37</v>
+      </c>
+      <c r="B45" s="99" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>15</v>
+      </c>
       <c r="D45" s="68"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="88"/>
+      <c r="E45" s="69">
+        <f t="shared" si="20"/>
+        <v>45780</v>
+      </c>
+      <c r="F45" s="70">
+        <f t="shared" si="25"/>
+        <v>45787</v>
+      </c>
+      <c r="G45" s="71">
+        <v>8</v>
+      </c>
+      <c r="H45" s="72">
+        <v>0</v>
+      </c>
+      <c r="I45" s="88">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
       <c r="J45" s="89"/>
       <c r="K45" s="66"/>
       <c r="L45" s="66"/>
@@ -7495,14 +7560,35 @@
       <c r="BN45" s="66"/>
     </row>
     <row r="46" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A46" s="66"/>
-      <c r="B46" s="67"/>
+      <c r="A46" s="66" t="str">
+        <f t="shared" si="6"/>
+        <v>1.38</v>
+      </c>
+      <c r="B46" s="99" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>16</v>
+      </c>
       <c r="D46" s="68"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="88"/>
+      <c r="E46" s="69">
+        <f t="shared" si="20"/>
+        <v>45788</v>
+      </c>
+      <c r="F46" s="70">
+        <f t="shared" si="25"/>
+        <v>45795</v>
+      </c>
+      <c r="G46" s="71">
+        <v>8</v>
+      </c>
+      <c r="H46" s="72">
+        <v>0</v>
+      </c>
+      <c r="I46" s="88">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
       <c r="J46" s="89"/>
       <c r="K46" s="66"/>
       <c r="L46" s="66"/>
@@ -8566,113 +8652,82 @@
       <c r="BM61" s="66"/>
       <c r="BN61" s="66"/>
     </row>
-    <row r="62" spans="1:66" s="44" customFormat="1" ht="18" hidden="1">
-      <c r="A62" s="73" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B62" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="75"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="76" t="str">
-        <f t="shared" ref="F62:F67" si="18">IF(ISBLANK(E62)," - ",IF(G62=0,E62,E62+G62-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G62" s="77"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="90" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J62" s="91"/>
-      <c r="K62" s="92"/>
-      <c r="L62" s="92"/>
-      <c r="M62" s="92"/>
-      <c r="N62" s="92"/>
-      <c r="O62" s="92"/>
-      <c r="P62" s="92"/>
-      <c r="Q62" s="92"/>
-      <c r="R62" s="92"/>
-      <c r="S62" s="92"/>
-      <c r="T62" s="92"/>
-      <c r="U62" s="92"/>
-      <c r="V62" s="92"/>
-      <c r="W62" s="92"/>
-      <c r="X62" s="92"/>
-      <c r="Y62" s="92"/>
-      <c r="Z62" s="92"/>
-      <c r="AA62" s="92"/>
-      <c r="AB62" s="92"/>
-      <c r="AC62" s="92"/>
-      <c r="AD62" s="92"/>
-      <c r="AE62" s="92"/>
-      <c r="AF62" s="92"/>
-      <c r="AG62" s="92"/>
-      <c r="AH62" s="92"/>
-      <c r="AI62" s="92"/>
-      <c r="AJ62" s="92"/>
-      <c r="AK62" s="92"/>
-      <c r="AL62" s="92"/>
-      <c r="AM62" s="92"/>
-      <c r="AN62" s="92"/>
-      <c r="AO62" s="92"/>
-      <c r="AP62" s="92"/>
-      <c r="AQ62" s="92"/>
-      <c r="AR62" s="92"/>
-      <c r="AS62" s="92"/>
-      <c r="AT62" s="92"/>
-      <c r="AU62" s="92"/>
-      <c r="AV62" s="92"/>
-      <c r="AW62" s="92"/>
-      <c r="AX62" s="92"/>
-      <c r="AY62" s="92"/>
-      <c r="AZ62" s="92"/>
-      <c r="BA62" s="92"/>
-      <c r="BB62" s="92"/>
-      <c r="BC62" s="92"/>
-      <c r="BD62" s="92"/>
-      <c r="BE62" s="92"/>
-      <c r="BF62" s="92"/>
-      <c r="BG62" s="92"/>
-      <c r="BH62" s="92"/>
-      <c r="BI62" s="92"/>
-      <c r="BJ62" s="92"/>
-      <c r="BK62" s="92"/>
-      <c r="BL62" s="92"/>
-      <c r="BM62" s="92"/>
-      <c r="BN62" s="92"/>
-    </row>
-    <row r="63" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
-      <c r="A63" s="66" t="str">
-        <f t="shared" ref="A63:A101" si="19">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B63" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="45" t="s">
-        <v>19</v>
-      </c>
+    <row r="62" spans="1:66" s="45" customFormat="1" ht="18">
+      <c r="A62" s="66"/>
+      <c r="B62" s="67"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="89"/>
+      <c r="K62" s="66"/>
+      <c r="L62" s="66"/>
+      <c r="M62" s="66"/>
+      <c r="N62" s="66"/>
+      <c r="O62" s="66"/>
+      <c r="P62" s="66"/>
+      <c r="Q62" s="66"/>
+      <c r="R62" s="66"/>
+      <c r="S62" s="66"/>
+      <c r="T62" s="66"/>
+      <c r="U62" s="66"/>
+      <c r="V62" s="66"/>
+      <c r="W62" s="66"/>
+      <c r="X62" s="66"/>
+      <c r="Y62" s="66"/>
+      <c r="Z62" s="66"/>
+      <c r="AA62" s="66"/>
+      <c r="AB62" s="66"/>
+      <c r="AC62" s="66"/>
+      <c r="AD62" s="66"/>
+      <c r="AE62" s="66"/>
+      <c r="AF62" s="66"/>
+      <c r="AG62" s="66"/>
+      <c r="AH62" s="66"/>
+      <c r="AI62" s="66"/>
+      <c r="AJ62" s="66"/>
+      <c r="AK62" s="66"/>
+      <c r="AL62" s="66"/>
+      <c r="AM62" s="66"/>
+      <c r="AN62" s="66"/>
+      <c r="AO62" s="66"/>
+      <c r="AP62" s="66"/>
+      <c r="AQ62" s="66"/>
+      <c r="AR62" s="66"/>
+      <c r="AS62" s="66"/>
+      <c r="AT62" s="66"/>
+      <c r="AU62" s="66"/>
+      <c r="AV62" s="66"/>
+      <c r="AW62" s="66"/>
+      <c r="AX62" s="66"/>
+      <c r="AY62" s="66"/>
+      <c r="AZ62" s="66"/>
+      <c r="BA62" s="66"/>
+      <c r="BB62" s="66"/>
+      <c r="BC62" s="66"/>
+      <c r="BD62" s="66"/>
+      <c r="BE62" s="66"/>
+      <c r="BF62" s="66"/>
+      <c r="BG62" s="66"/>
+      <c r="BH62" s="66"/>
+      <c r="BI62" s="66"/>
+      <c r="BJ62" s="66"/>
+      <c r="BK62" s="66"/>
+      <c r="BL62" s="66"/>
+      <c r="BM62" s="66"/>
+      <c r="BN62" s="66"/>
+    </row>
+    <row r="63" spans="1:66" s="45" customFormat="1" ht="18">
+      <c r="A63" s="66"/>
+      <c r="B63" s="67"/>
       <c r="D63" s="68"/>
-      <c r="E63" s="69">
-        <v>46057</v>
-      </c>
-      <c r="F63" s="70">
-        <f t="shared" si="18"/>
-        <v>46063</v>
-      </c>
-      <c r="G63" s="71">
-        <v>7</v>
-      </c>
-      <c r="H63" s="72">
-        <v>0</v>
-      </c>
-      <c r="I63" s="88">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="E63" s="69"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="88"/>
       <c r="J63" s="89"/>
       <c r="K63" s="66"/>
       <c r="L63" s="66"/>
@@ -8731,35 +8786,15 @@
       <c r="BM63" s="66"/>
       <c r="BN63" s="66"/>
     </row>
-    <row r="64" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
-      <c r="A64" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.2</v>
-      </c>
-      <c r="B64" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="45" t="s">
-        <v>15</v>
-      </c>
+    <row r="64" spans="1:66" s="45" customFormat="1" ht="18">
+      <c r="A64" s="66"/>
+      <c r="B64" s="67"/>
       <c r="D64" s="68"/>
-      <c r="E64" s="69">
-        <v>46064</v>
-      </c>
-      <c r="F64" s="70">
-        <f t="shared" si="18"/>
-        <v>46070</v>
-      </c>
-      <c r="G64" s="71">
-        <v>7</v>
-      </c>
-      <c r="H64" s="72">
-        <v>0</v>
-      </c>
-      <c r="I64" s="88">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="E64" s="69"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="88"/>
       <c r="J64" s="89"/>
       <c r="K64" s="66"/>
       <c r="L64" s="66"/>
@@ -8818,35 +8853,15 @@
       <c r="BM64" s="66"/>
       <c r="BN64" s="66"/>
     </row>
-    <row r="65" spans="1:66" s="45" customFormat="1" ht="44.25" hidden="1" customHeight="1">
-      <c r="A65" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.3</v>
-      </c>
-      <c r="B65" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" s="45" t="s">
-        <v>16</v>
-      </c>
+    <row r="65" spans="1:66" s="45" customFormat="1" ht="18">
+      <c r="A65" s="66"/>
+      <c r="B65" s="67"/>
       <c r="D65" s="68"/>
-      <c r="E65" s="69">
-        <v>46064</v>
-      </c>
-      <c r="F65" s="70">
-        <f t="shared" si="18"/>
-        <v>46070</v>
-      </c>
-      <c r="G65" s="71">
-        <v>7</v>
-      </c>
-      <c r="H65" s="72">
-        <v>0</v>
-      </c>
-      <c r="I65" s="88">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="E65" s="69"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="88"/>
       <c r="J65" s="89"/>
       <c r="K65" s="66"/>
       <c r="L65" s="66"/>
@@ -8905,111 +8920,102 @@
       <c r="BM65" s="66"/>
       <c r="BN65" s="66"/>
     </row>
-    <row r="66" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
-      <c r="A66" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.4</v>
-      </c>
-      <c r="B66" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="68"/>
-      <c r="E66" s="69">
-        <v>46071</v>
-      </c>
-      <c r="F66" s="70">
-        <f t="shared" si="18"/>
-        <v>46077</v>
-      </c>
-      <c r="G66" s="71">
-        <v>7</v>
-      </c>
-      <c r="H66" s="72">
-        <v>0</v>
-      </c>
-      <c r="I66" s="88">
+    <row r="66" spans="1:66" s="44" customFormat="1" ht="18" hidden="1">
+      <c r="A66" s="73" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B66" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="75"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76" t="str">
+        <f t="shared" ref="F66:F71" si="27">IF(ISBLANK(E66)," - ",IF(G66=0,E66,E66+G66-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G66" s="77"/>
+      <c r="H66" s="78"/>
+      <c r="I66" s="90" t="str">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="J66" s="89"/>
-      <c r="K66" s="66"/>
-      <c r="L66" s="66"/>
-      <c r="M66" s="66"/>
-      <c r="N66" s="66"/>
-      <c r="O66" s="66"/>
-      <c r="P66" s="66"/>
-      <c r="Q66" s="66"/>
-      <c r="R66" s="66"/>
-      <c r="S66" s="66"/>
-      <c r="T66" s="66"/>
-      <c r="U66" s="66"/>
-      <c r="V66" s="66"/>
-      <c r="W66" s="66"/>
-      <c r="X66" s="66"/>
-      <c r="Y66" s="66"/>
-      <c r="Z66" s="66"/>
-      <c r="AA66" s="66"/>
-      <c r="AB66" s="66"/>
-      <c r="AC66" s="66"/>
-      <c r="AD66" s="66"/>
-      <c r="AE66" s="66"/>
-      <c r="AF66" s="66"/>
-      <c r="AG66" s="66"/>
-      <c r="AH66" s="66"/>
-      <c r="AI66" s="66"/>
-      <c r="AJ66" s="66"/>
-      <c r="AK66" s="66"/>
-      <c r="AL66" s="66"/>
-      <c r="AM66" s="66"/>
-      <c r="AN66" s="66"/>
-      <c r="AO66" s="66"/>
-      <c r="AP66" s="66"/>
-      <c r="AQ66" s="66"/>
-      <c r="AR66" s="66"/>
-      <c r="AS66" s="66"/>
-      <c r="AT66" s="66"/>
-      <c r="AU66" s="66"/>
-      <c r="AV66" s="66"/>
-      <c r="AW66" s="66"/>
-      <c r="AX66" s="66"/>
-      <c r="AY66" s="66"/>
-      <c r="AZ66" s="66"/>
-      <c r="BA66" s="66"/>
-      <c r="BB66" s="66"/>
-      <c r="BC66" s="66"/>
-      <c r="BD66" s="66"/>
-      <c r="BE66" s="66"/>
-      <c r="BF66" s="66"/>
-      <c r="BG66" s="66"/>
-      <c r="BH66" s="66"/>
-      <c r="BI66" s="66"/>
-      <c r="BJ66" s="66"/>
-      <c r="BK66" s="66"/>
-      <c r="BL66" s="66"/>
-      <c r="BM66" s="66"/>
-      <c r="BN66" s="66"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J66" s="91"/>
+      <c r="K66" s="92"/>
+      <c r="L66" s="92"/>
+      <c r="M66" s="92"/>
+      <c r="N66" s="92"/>
+      <c r="O66" s="92"/>
+      <c r="P66" s="92"/>
+      <c r="Q66" s="92"/>
+      <c r="R66" s="92"/>
+      <c r="S66" s="92"/>
+      <c r="T66" s="92"/>
+      <c r="U66" s="92"/>
+      <c r="V66" s="92"/>
+      <c r="W66" s="92"/>
+      <c r="X66" s="92"/>
+      <c r="Y66" s="92"/>
+      <c r="Z66" s="92"/>
+      <c r="AA66" s="92"/>
+      <c r="AB66" s="92"/>
+      <c r="AC66" s="92"/>
+      <c r="AD66" s="92"/>
+      <c r="AE66" s="92"/>
+      <c r="AF66" s="92"/>
+      <c r="AG66" s="92"/>
+      <c r="AH66" s="92"/>
+      <c r="AI66" s="92"/>
+      <c r="AJ66" s="92"/>
+      <c r="AK66" s="92"/>
+      <c r="AL66" s="92"/>
+      <c r="AM66" s="92"/>
+      <c r="AN66" s="92"/>
+      <c r="AO66" s="92"/>
+      <c r="AP66" s="92"/>
+      <c r="AQ66" s="92"/>
+      <c r="AR66" s="92"/>
+      <c r="AS66" s="92"/>
+      <c r="AT66" s="92"/>
+      <c r="AU66" s="92"/>
+      <c r="AV66" s="92"/>
+      <c r="AW66" s="92"/>
+      <c r="AX66" s="92"/>
+      <c r="AY66" s="92"/>
+      <c r="AZ66" s="92"/>
+      <c r="BA66" s="92"/>
+      <c r="BB66" s="92"/>
+      <c r="BC66" s="92"/>
+      <c r="BD66" s="92"/>
+      <c r="BE66" s="92"/>
+      <c r="BF66" s="92"/>
+      <c r="BG66" s="92"/>
+      <c r="BH66" s="92"/>
+      <c r="BI66" s="92"/>
+      <c r="BJ66" s="92"/>
+      <c r="BK66" s="92"/>
+      <c r="BL66" s="92"/>
+      <c r="BM66" s="92"/>
+      <c r="BN66" s="92"/>
     </row>
     <row r="67" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A67" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.5</v>
+        <f t="shared" ref="A67:A105" si="28">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
       </c>
       <c r="B67" s="67" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C67" s="45" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D67" s="68"/>
       <c r="E67" s="69">
-        <v>46071</v>
+        <v>46057</v>
       </c>
       <c r="F67" s="70">
-        <f t="shared" si="18"/>
-        <v>46077</v>
+        <f t="shared" si="27"/>
+        <v>46063</v>
       </c>
       <c r="G67" s="71">
         <v>7</v>
@@ -9081,22 +9087,22 @@
     </row>
     <row r="68" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A68" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.6</v>
+        <f t="shared" si="28"/>
+        <v>1.2</v>
       </c>
       <c r="B68" s="67" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C68" s="45" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="68"/>
       <c r="E68" s="69">
-        <v>46078</v>
+        <v>46064</v>
       </c>
       <c r="F68" s="70">
-        <f t="shared" ref="F68:F82" si="20">IF(ISBLANK(E68)," - ",IF(G68=0,E68,E68+G68-1))</f>
-        <v>46084</v>
+        <f t="shared" si="27"/>
+        <v>46070</v>
       </c>
       <c r="G68" s="71">
         <v>7</v>
@@ -9105,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="88">
-        <f t="shared" ref="I68:I82" si="21">IF(OR(F68=0,E68=0)," - ",NETWORKDAYS(E68,F68))</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="J68" s="89"/>
@@ -9166,24 +9172,24 @@
       <c r="BM68" s="66"/>
       <c r="BN68" s="66"/>
     </row>
-    <row r="69" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
+    <row r="69" spans="1:66" s="45" customFormat="1" ht="44.25" hidden="1" customHeight="1">
       <c r="A69" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.7</v>
+        <f t="shared" si="28"/>
+        <v>1.3</v>
       </c>
       <c r="B69" s="67" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C69" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="68"/>
       <c r="E69" s="69">
-        <v>46078</v>
+        <v>46064</v>
       </c>
       <c r="F69" s="70">
-        <f t="shared" si="20"/>
-        <v>46084</v>
+        <f t="shared" si="27"/>
+        <v>46070</v>
       </c>
       <c r="G69" s="71">
         <v>7</v>
@@ -9192,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="J69" s="89"/>
@@ -9255,22 +9261,22 @@
     </row>
     <row r="70" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A70" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.8</v>
+        <f t="shared" si="28"/>
+        <v>1.4</v>
       </c>
       <c r="B70" s="67" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D70" s="68"/>
       <c r="E70" s="69">
-        <v>46057</v>
+        <v>46071</v>
       </c>
       <c r="F70" s="70">
-        <f t="shared" si="20"/>
-        <v>46063</v>
+        <f t="shared" si="27"/>
+        <v>46077</v>
       </c>
       <c r="G70" s="71">
         <v>7</v>
@@ -9279,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="J70" s="89"/>
@@ -9342,22 +9348,22 @@
     </row>
     <row r="71" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A71" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.9</v>
+        <f t="shared" si="28"/>
+        <v>1.5</v>
       </c>
       <c r="B71" s="67" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D71" s="68"/>
       <c r="E71" s="69">
-        <v>46085</v>
+        <v>46071</v>
       </c>
       <c r="F71" s="70">
-        <f t="shared" si="20"/>
-        <v>46091</v>
+        <f t="shared" si="27"/>
+        <v>46077</v>
       </c>
       <c r="G71" s="71">
         <v>7</v>
@@ -9366,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="J71" s="89"/>
@@ -9429,22 +9435,22 @@
     </row>
     <row r="72" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A72" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.10</v>
+        <f t="shared" si="28"/>
+        <v>1.6</v>
       </c>
       <c r="B72" s="67" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D72" s="68"/>
       <c r="E72" s="69">
-        <v>46085</v>
+        <v>46078</v>
       </c>
       <c r="F72" s="70">
-        <f t="shared" si="20"/>
-        <v>46091</v>
+        <f t="shared" ref="F72:F86" si="29">IF(ISBLANK(E72)," - ",IF(G72=0,E72,E72+G72-1))</f>
+        <v>46084</v>
       </c>
       <c r="G72" s="71">
         <v>7</v>
@@ -9453,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="88">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="I72:I86" si="30">IF(OR(F72=0,E72=0)," - ",NETWORKDAYS(E72,F72))</f>
         <v>5</v>
       </c>
       <c r="J72" s="89"/>
@@ -9516,22 +9522,22 @@
     </row>
     <row r="73" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A73" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.11</v>
+        <f t="shared" si="28"/>
+        <v>1.7</v>
       </c>
       <c r="B73" s="67" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C73" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="68"/>
       <c r="E73" s="69">
-        <v>46092</v>
+        <v>46078</v>
       </c>
       <c r="F73" s="70">
-        <f t="shared" si="20"/>
-        <v>46098</v>
+        <f t="shared" si="29"/>
+        <v>46084</v>
       </c>
       <c r="G73" s="71">
         <v>7</v>
@@ -9540,7 +9546,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="J73" s="89"/>
@@ -9603,22 +9609,22 @@
     </row>
     <row r="74" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A74" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.12</v>
+        <f t="shared" si="28"/>
+        <v>1.8</v>
       </c>
       <c r="B74" s="67" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C74" s="45" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D74" s="68"/>
       <c r="E74" s="69">
-        <v>46092</v>
+        <v>46057</v>
       </c>
       <c r="F74" s="70">
-        <f t="shared" si="20"/>
-        <v>46098</v>
+        <f t="shared" si="29"/>
+        <v>46063</v>
       </c>
       <c r="G74" s="71">
         <v>7</v>
@@ -9627,7 +9633,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="J74" s="89"/>
@@ -9690,22 +9696,22 @@
     </row>
     <row r="75" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A75" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.13</v>
+        <f t="shared" si="28"/>
+        <v>1.9</v>
       </c>
       <c r="B75" s="67" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C75" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D75" s="68"/>
       <c r="E75" s="69">
-        <v>46099</v>
+        <v>46085</v>
       </c>
       <c r="F75" s="70">
-        <f t="shared" si="20"/>
-        <v>46105</v>
+        <f t="shared" si="29"/>
+        <v>46091</v>
       </c>
       <c r="G75" s="71">
         <v>7</v>
@@ -9714,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="J75" s="89"/>
@@ -9777,22 +9783,22 @@
     </row>
     <row r="76" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A76" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.14</v>
+        <f t="shared" si="28"/>
+        <v>1.10</v>
       </c>
       <c r="B76" s="67" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C76" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D76" s="68"/>
       <c r="E76" s="69">
-        <v>46106</v>
+        <v>46085</v>
       </c>
       <c r="F76" s="70">
-        <f t="shared" ref="F76" si="22">IF(ISBLANK(E76)," - ",IF(G76=0,E76,E76+G76-1))</f>
-        <v>46112</v>
+        <f t="shared" si="29"/>
+        <v>46091</v>
       </c>
       <c r="G76" s="71">
         <v>7</v>
@@ -9801,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="88">
-        <f t="shared" ref="I76" si="23">IF(OR(F76=0,E76=0)," - ",NETWORKDAYS(E76,F76))</f>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="J76" s="89"/>
@@ -9864,22 +9870,22 @@
     </row>
     <row r="77" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A77" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.15</v>
+        <f t="shared" si="28"/>
+        <v>1.11</v>
       </c>
       <c r="B77" s="67" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C77" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D77" s="68"/>
       <c r="E77" s="69">
-        <v>46106</v>
+        <v>46092</v>
       </c>
       <c r="F77" s="70">
-        <f t="shared" ref="F77" si="24">IF(ISBLANK(E77)," - ",IF(G77=0,E77,E77+G77-1))</f>
-        <v>46112</v>
+        <f t="shared" si="29"/>
+        <v>46098</v>
       </c>
       <c r="G77" s="71">
         <v>7</v>
@@ -9888,7 +9894,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="88">
-        <f t="shared" ref="I77" si="25">IF(OR(F77=0,E77=0)," - ",NETWORKDAYS(E77,F77))</f>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="J77" s="89"/>
@@ -9951,22 +9957,22 @@
     </row>
     <row r="78" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A78" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.16</v>
+        <f t="shared" si="28"/>
+        <v>1.12</v>
       </c>
       <c r="B78" s="67" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C78" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D78" s="68"/>
       <c r="E78" s="69">
-        <v>46113</v>
+        <v>46092</v>
       </c>
       <c r="F78" s="70">
-        <f t="shared" si="20"/>
-        <v>46119</v>
+        <f t="shared" si="29"/>
+        <v>46098</v>
       </c>
       <c r="G78" s="71">
         <v>7</v>
@@ -9975,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="I78" s="88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="J78" s="89"/>
@@ -10038,22 +10044,22 @@
     </row>
     <row r="79" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A79" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.17</v>
+        <f t="shared" si="28"/>
+        <v>1.13</v>
       </c>
       <c r="B79" s="67" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C79" s="45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D79" s="68"/>
       <c r="E79" s="69">
-        <v>46113</v>
+        <v>46099</v>
       </c>
       <c r="F79" s="70">
-        <f t="shared" si="20"/>
-        <v>46119</v>
+        <f t="shared" si="29"/>
+        <v>46105</v>
       </c>
       <c r="G79" s="71">
         <v>7</v>
@@ -10062,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="J79" s="89"/>
@@ -10125,22 +10131,22 @@
     </row>
     <row r="80" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A80" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.18</v>
+        <f t="shared" si="28"/>
+        <v>1.14</v>
       </c>
       <c r="B80" s="67" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C80" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="68"/>
       <c r="E80" s="69">
-        <v>46120</v>
+        <v>46106</v>
       </c>
       <c r="F80" s="70">
-        <f t="shared" si="20"/>
-        <v>46126</v>
+        <f t="shared" ref="F80" si="31">IF(ISBLANK(E80)," - ",IF(G80=0,E80,E80+G80-1))</f>
+        <v>46112</v>
       </c>
       <c r="G80" s="71">
         <v>7</v>
@@ -10149,7 +10155,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="88">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="I80" si="32">IF(OR(F80=0,E80=0)," - ",NETWORKDAYS(E80,F80))</f>
         <v>5</v>
       </c>
       <c r="J80" s="89"/>
@@ -10212,22 +10218,22 @@
     </row>
     <row r="81" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A81" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.19</v>
+        <f t="shared" si="28"/>
+        <v>1.15</v>
       </c>
       <c r="B81" s="67" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C81" s="45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D81" s="68"/>
       <c r="E81" s="69">
-        <v>46120</v>
+        <v>46106</v>
       </c>
       <c r="F81" s="70">
-        <f t="shared" si="20"/>
-        <v>46126</v>
+        <f t="shared" ref="F81" si="33">IF(ISBLANK(E81)," - ",IF(G81=0,E81,E81+G81-1))</f>
+        <v>46112</v>
       </c>
       <c r="G81" s="71">
         <v>7</v>
@@ -10236,7 +10242,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="88">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="I81" si="34">IF(OR(F81=0,E81=0)," - ",NETWORKDAYS(E81,F81))</f>
         <v>5</v>
       </c>
       <c r="J81" s="89"/>
@@ -10299,22 +10305,22 @@
     </row>
     <row r="82" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A82" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.20</v>
+        <f t="shared" si="28"/>
+        <v>1.16</v>
       </c>
       <c r="B82" s="67" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C82" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D82" s="68"/>
       <c r="E82" s="69">
-        <v>46127</v>
+        <v>46113</v>
       </c>
       <c r="F82" s="70">
-        <f t="shared" si="20"/>
-        <v>46133</v>
+        <f t="shared" si="29"/>
+        <v>46119</v>
       </c>
       <c r="G82" s="71">
         <v>7</v>
@@ -10323,7 +10329,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="J82" s="89"/>
@@ -10386,22 +10392,22 @@
     </row>
     <row r="83" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A83" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.21</v>
+        <f t="shared" si="28"/>
+        <v>1.17</v>
       </c>
       <c r="B83" s="67" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C83" s="45" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="68"/>
       <c r="E83" s="69">
-        <v>46127</v>
+        <v>46113</v>
       </c>
       <c r="F83" s="70">
-        <f t="shared" ref="F83:F93" si="26">IF(ISBLANK(E83)," - ",IF(G83=0,E83,E83+G83-1))</f>
-        <v>46133</v>
+        <f t="shared" si="29"/>
+        <v>46119</v>
       </c>
       <c r="G83" s="71">
         <v>7</v>
@@ -10410,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="88">
-        <f t="shared" ref="I83:I91" si="27">IF(OR(F83=0,E83=0)," - ",NETWORKDAYS(E83,F83))</f>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="J83" s="89"/>
@@ -10473,22 +10479,22 @@
     </row>
     <row r="84" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A84" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.22</v>
+        <f t="shared" si="28"/>
+        <v>1.18</v>
       </c>
       <c r="B84" s="67" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C84" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D84" s="68"/>
       <c r="E84" s="69">
-        <v>46134</v>
+        <v>46120</v>
       </c>
       <c r="F84" s="70">
-        <f t="shared" si="26"/>
-        <v>46140</v>
+        <f t="shared" si="29"/>
+        <v>46126</v>
       </c>
       <c r="G84" s="71">
         <v>7</v>
@@ -10497,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="88">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="J84" s="89"/>
@@ -10560,22 +10566,22 @@
     </row>
     <row r="85" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A85" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.23</v>
+        <f t="shared" si="28"/>
+        <v>1.19</v>
       </c>
       <c r="B85" s="67" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C85" s="45" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="68"/>
       <c r="E85" s="69">
-        <v>46134</v>
+        <v>46120</v>
       </c>
       <c r="F85" s="70">
-        <f t="shared" ref="F85:F86" si="28">IF(ISBLANK(E85)," - ",IF(G85=0,E85,E85+G85-1))</f>
-        <v>46140</v>
+        <f t="shared" si="29"/>
+        <v>46126</v>
       </c>
       <c r="G85" s="71">
         <v>7</v>
@@ -10584,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="88">
-        <f t="shared" ref="I85:I86" si="29">IF(OR(F85=0,E85=0)," - ",NETWORKDAYS(E85,F85))</f>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="J85" s="89"/>
@@ -10647,22 +10653,22 @@
     </row>
     <row r="86" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A86" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.24</v>
+        <f t="shared" si="28"/>
+        <v>1.20</v>
       </c>
       <c r="B86" s="67" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C86" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D86" s="68"/>
       <c r="E86" s="69">
-        <v>46141</v>
+        <v>46127</v>
       </c>
       <c r="F86" s="70">
-        <f t="shared" si="28"/>
-        <v>46147</v>
+        <f t="shared" si="29"/>
+        <v>46133</v>
       </c>
       <c r="G86" s="71">
         <v>7</v>
@@ -10671,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="I86" s="88">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="J86" s="89"/>
@@ -10734,22 +10740,22 @@
     </row>
     <row r="87" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A87" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.25</v>
+        <f t="shared" si="28"/>
+        <v>1.21</v>
       </c>
       <c r="B87" s="67" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C87" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D87" s="68"/>
       <c r="E87" s="69">
-        <v>46141</v>
+        <v>46127</v>
       </c>
       <c r="F87" s="70">
-        <f t="shared" ref="F87:F89" si="30">IF(ISBLANK(E87)," - ",IF(G87=0,E87,E87+G87-1))</f>
-        <v>46147</v>
+        <f t="shared" ref="F87:F97" si="35">IF(ISBLANK(E87)," - ",IF(G87=0,E87,E87+G87-1))</f>
+        <v>46133</v>
       </c>
       <c r="G87" s="71">
         <v>7</v>
@@ -10758,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="I87" s="88">
-        <f t="shared" ref="I87:I89" si="31">IF(OR(F87=0,E87=0)," - ",NETWORKDAYS(E87,F87))</f>
+        <f t="shared" ref="I87:I95" si="36">IF(OR(F87=0,E87=0)," - ",NETWORKDAYS(E87,F87))</f>
         <v>5</v>
       </c>
       <c r="J87" s="89"/>
@@ -10821,22 +10827,22 @@
     </row>
     <row r="88" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A88" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.26</v>
+        <f t="shared" si="28"/>
+        <v>1.22</v>
       </c>
       <c r="B88" s="67" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C88" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D88" s="68"/>
       <c r="E88" s="69">
-        <v>46148</v>
+        <v>46134</v>
       </c>
       <c r="F88" s="70">
-        <f t="shared" si="30"/>
-        <v>46154</v>
+        <f t="shared" si="35"/>
+        <v>46140</v>
       </c>
       <c r="G88" s="71">
         <v>7</v>
@@ -10845,7 +10851,7 @@
         <v>0</v>
       </c>
       <c r="I88" s="88">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="J88" s="89"/>
@@ -10908,22 +10914,22 @@
     </row>
     <row r="89" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A89" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>1.27</v>
+        <f t="shared" si="28"/>
+        <v>1.23</v>
       </c>
       <c r="B89" s="67" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C89" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D89" s="68"/>
       <c r="E89" s="69">
-        <v>46148</v>
+        <v>46134</v>
       </c>
       <c r="F89" s="70">
-        <f t="shared" si="30"/>
-        <v>46154</v>
+        <f t="shared" ref="F89:F90" si="37">IF(ISBLANK(E89)," - ",IF(G89=0,E89,E89+G89-1))</f>
+        <v>46140</v>
       </c>
       <c r="G89" s="71">
         <v>7</v>
@@ -10932,7 +10938,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="88">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="I89:I90" si="38">IF(OR(F89=0,E89=0)," - ",NETWORKDAYS(E89,F89))</f>
         <v>5</v>
       </c>
       <c r="J89" s="89"/>
@@ -10993,111 +10999,120 @@
       <c r="BM89" s="66"/>
       <c r="BN89" s="66"/>
     </row>
-    <row r="90" spans="1:66" s="44" customFormat="1" ht="18" hidden="1">
-      <c r="A90" s="73" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>2</v>
-      </c>
-      <c r="B90" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="D90" s="75"/>
-      <c r="E90" s="76"/>
-      <c r="F90" s="76" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G90" s="77"/>
-      <c r="H90" s="78"/>
-      <c r="I90" s="90" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J90" s="91"/>
-      <c r="K90" s="92"/>
-      <c r="L90" s="92"/>
-      <c r="M90" s="92"/>
-      <c r="N90" s="92"/>
-      <c r="O90" s="92"/>
-      <c r="P90" s="92"/>
-      <c r="Q90" s="92"/>
-      <c r="R90" s="92"/>
-      <c r="S90" s="92"/>
-      <c r="T90" s="92"/>
-      <c r="U90" s="92"/>
-      <c r="V90" s="92"/>
-      <c r="W90" s="92"/>
-      <c r="X90" s="92"/>
-      <c r="Y90" s="92"/>
-      <c r="Z90" s="92"/>
-      <c r="AA90" s="92"/>
-      <c r="AB90" s="92"/>
-      <c r="AC90" s="92"/>
-      <c r="AD90" s="92"/>
-      <c r="AE90" s="92"/>
-      <c r="AF90" s="92"/>
-      <c r="AG90" s="92"/>
-      <c r="AH90" s="92"/>
-      <c r="AI90" s="92"/>
-      <c r="AJ90" s="92"/>
-      <c r="AK90" s="92"/>
-      <c r="AL90" s="92"/>
-      <c r="AM90" s="92"/>
-      <c r="AN90" s="92"/>
-      <c r="AO90" s="92"/>
-      <c r="AP90" s="92"/>
-      <c r="AQ90" s="92"/>
-      <c r="AR90" s="92"/>
-      <c r="AS90" s="92"/>
-      <c r="AT90" s="92"/>
-      <c r="AU90" s="92"/>
-      <c r="AV90" s="92"/>
-      <c r="AW90" s="92"/>
-      <c r="AX90" s="92"/>
-      <c r="AY90" s="92"/>
-      <c r="AZ90" s="92"/>
-      <c r="BA90" s="92"/>
-      <c r="BB90" s="92"/>
-      <c r="BC90" s="92"/>
-      <c r="BD90" s="92"/>
-      <c r="BE90" s="92"/>
-      <c r="BF90" s="92"/>
-      <c r="BG90" s="92"/>
-      <c r="BH90" s="92"/>
-      <c r="BI90" s="92"/>
-      <c r="BJ90" s="92"/>
-      <c r="BK90" s="92"/>
-      <c r="BL90" s="92"/>
-      <c r="BM90" s="92"/>
-      <c r="BN90" s="92"/>
+    <row r="90" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
+      <c r="A90" s="66" t="str">
+        <f t="shared" si="28"/>
+        <v>1.24</v>
+      </c>
+      <c r="B90" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="68"/>
+      <c r="E90" s="69">
+        <v>46141</v>
+      </c>
+      <c r="F90" s="70">
+        <f t="shared" si="37"/>
+        <v>46147</v>
+      </c>
+      <c r="G90" s="71">
+        <v>7</v>
+      </c>
+      <c r="H90" s="72">
+        <v>0</v>
+      </c>
+      <c r="I90" s="88">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="J90" s="89"/>
+      <c r="K90" s="66"/>
+      <c r="L90" s="66"/>
+      <c r="M90" s="66"/>
+      <c r="N90" s="66"/>
+      <c r="O90" s="66"/>
+      <c r="P90" s="66"/>
+      <c r="Q90" s="66"/>
+      <c r="R90" s="66"/>
+      <c r="S90" s="66"/>
+      <c r="T90" s="66"/>
+      <c r="U90" s="66"/>
+      <c r="V90" s="66"/>
+      <c r="W90" s="66"/>
+      <c r="X90" s="66"/>
+      <c r="Y90" s="66"/>
+      <c r="Z90" s="66"/>
+      <c r="AA90" s="66"/>
+      <c r="AB90" s="66"/>
+      <c r="AC90" s="66"/>
+      <c r="AD90" s="66"/>
+      <c r="AE90" s="66"/>
+      <c r="AF90" s="66"/>
+      <c r="AG90" s="66"/>
+      <c r="AH90" s="66"/>
+      <c r="AI90" s="66"/>
+      <c r="AJ90" s="66"/>
+      <c r="AK90" s="66"/>
+      <c r="AL90" s="66"/>
+      <c r="AM90" s="66"/>
+      <c r="AN90" s="66"/>
+      <c r="AO90" s="66"/>
+      <c r="AP90" s="66"/>
+      <c r="AQ90" s="66"/>
+      <c r="AR90" s="66"/>
+      <c r="AS90" s="66"/>
+      <c r="AT90" s="66"/>
+      <c r="AU90" s="66"/>
+      <c r="AV90" s="66"/>
+      <c r="AW90" s="66"/>
+      <c r="AX90" s="66"/>
+      <c r="AY90" s="66"/>
+      <c r="AZ90" s="66"/>
+      <c r="BA90" s="66"/>
+      <c r="BB90" s="66"/>
+      <c r="BC90" s="66"/>
+      <c r="BD90" s="66"/>
+      <c r="BE90" s="66"/>
+      <c r="BF90" s="66"/>
+      <c r="BG90" s="66"/>
+      <c r="BH90" s="66"/>
+      <c r="BI90" s="66"/>
+      <c r="BJ90" s="66"/>
+      <c r="BK90" s="66"/>
+      <c r="BL90" s="66"/>
+      <c r="BM90" s="66"/>
+      <c r="BN90" s="66"/>
     </row>
     <row r="91" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A91" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>2.1</v>
-      </c>
-      <c r="B91" s="95" t="s">
-        <v>48</v>
+        <f t="shared" si="28"/>
+        <v>1.25</v>
+      </c>
+      <c r="B91" s="67" t="s">
+        <v>44</v>
       </c>
       <c r="C91" s="45" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D91" s="68"/>
       <c r="E91" s="69">
-        <v>46034</v>
+        <v>46141</v>
       </c>
       <c r="F91" s="70">
-        <f t="shared" si="26"/>
-        <v>46038</v>
+        <f t="shared" ref="F91:F93" si="39">IF(ISBLANK(E91)," - ",IF(G91=0,E91,E91+G91-1))</f>
+        <v>46147</v>
       </c>
       <c r="G91" s="71">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H91" s="72">
         <v>0</v>
       </c>
       <c r="I91" s="88">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="I91:I93" si="40">IF(OR(F91=0,E91=0)," - ",NETWORKDAYS(E91,F91))</f>
         <v>5</v>
       </c>
       <c r="J91" s="89"/>
@@ -11160,31 +11175,32 @@
     </row>
     <row r="92" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A92" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>2.2</v>
-      </c>
-      <c r="B92" s="95" t="s">
-        <v>49</v>
+        <f t="shared" si="28"/>
+        <v>1.26</v>
+      </c>
+      <c r="B92" s="67" t="s">
+        <v>45</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D92" s="68"/>
       <c r="E92" s="69">
-        <v>46023</v>
+        <v>46148</v>
       </c>
       <c r="F92" s="70">
-        <f t="shared" si="26"/>
-        <v>46032</v>
+        <f t="shared" si="39"/>
+        <v>46154</v>
       </c>
       <c r="G92" s="71">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H92" s="72">
         <v>0</v>
       </c>
       <c r="I92" s="88">
-        <v>6</v>
+        <f t="shared" si="40"/>
+        <v>5</v>
       </c>
       <c r="J92" s="89"/>
       <c r="K92" s="66"/>
@@ -11244,32 +11260,33 @@
       <c r="BM92" s="66"/>
       <c r="BN92" s="66"/>
     </row>
-    <row r="93" spans="1:66" s="45" customFormat="1" ht="45" hidden="1" customHeight="1">
+    <row r="93" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A93" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>2.3</v>
-      </c>
-      <c r="B93" s="95" t="s">
-        <v>51</v>
+        <f t="shared" si="28"/>
+        <v>1.27</v>
+      </c>
+      <c r="B93" s="67" t="s">
+        <v>46</v>
       </c>
       <c r="C93" s="45" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D93" s="68"/>
       <c r="E93" s="69">
-        <v>46034</v>
+        <v>46148</v>
       </c>
       <c r="F93" s="70">
-        <f t="shared" si="26"/>
-        <v>46038</v>
+        <f t="shared" si="39"/>
+        <v>46154</v>
       </c>
       <c r="G93" s="71">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H93" s="72">
         <v>0</v>
       </c>
       <c r="I93" s="88">
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="J93" s="89"/>
@@ -11333,21 +11350,21 @@
     <row r="94" spans="1:66" s="44" customFormat="1" ht="18" hidden="1">
       <c r="A94" s="73" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B94" s="74" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D94" s="75"/>
       <c r="E94" s="76"/>
       <c r="F94" s="76" t="str">
-        <f t="shared" ref="F94:F99" si="32">IF(ISBLANK(E94)," - ",IF(G94=0,E94,E94+G94-1))</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G94" s="77"/>
       <c r="H94" s="78"/>
       <c r="I94" s="90" t="str">
-        <f t="shared" ref="I94" si="33">IF(OR(F94=0,E94=0)," - ",NETWORKDAYS(E94,F94))</f>
+        <f t="shared" si="36"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J94" s="91"/>
@@ -11410,31 +11427,32 @@
     </row>
     <row r="95" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A95" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>3.1</v>
+        <f t="shared" si="28"/>
+        <v>2.1</v>
       </c>
       <c r="B95" s="95" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C95" s="45" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="68"/>
       <c r="E95" s="69">
-        <v>46041</v>
+        <v>46034</v>
       </c>
       <c r="F95" s="70">
-        <f t="shared" si="32"/>
-        <v>46044</v>
+        <f t="shared" si="35"/>
+        <v>46038</v>
       </c>
       <c r="G95" s="71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H95" s="72">
         <v>0</v>
       </c>
       <c r="I95" s="88">
-        <v>4</v>
+        <f t="shared" si="36"/>
+        <v>5</v>
       </c>
       <c r="J95" s="89"/>
       <c r="K95" s="66"/>
@@ -11496,31 +11514,31 @@
     </row>
     <row r="96" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A96" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>3.2</v>
+        <f t="shared" si="28"/>
+        <v>2.2</v>
       </c>
       <c r="B96" s="95" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C96" s="45" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D96" s="68"/>
       <c r="E96" s="69">
-        <v>46041</v>
+        <v>46023</v>
       </c>
       <c r="F96" s="70">
-        <f t="shared" si="32"/>
-        <v>46044</v>
+        <f t="shared" si="35"/>
+        <v>46032</v>
       </c>
       <c r="G96" s="71">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H96" s="72">
         <v>0</v>
       </c>
       <c r="I96" s="88">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J96" s="89"/>
       <c r="K96" s="66"/>
@@ -11580,33 +11598,33 @@
       <c r="BM96" s="66"/>
       <c r="BN96" s="66"/>
     </row>
-    <row r="97" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
+    <row r="97" spans="1:66" s="45" customFormat="1" ht="45" hidden="1" customHeight="1">
       <c r="A97" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>3.3</v>
+        <f t="shared" si="28"/>
+        <v>2.3</v>
       </c>
       <c r="B97" s="95" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C97" s="45" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D97" s="68"/>
       <c r="E97" s="69">
-        <v>46045</v>
+        <v>46034</v>
       </c>
       <c r="F97" s="70">
-        <f t="shared" si="32"/>
-        <v>46050</v>
+        <f t="shared" si="35"/>
+        <v>46038</v>
       </c>
       <c r="G97" s="71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H97" s="72">
         <v>0</v>
       </c>
       <c r="I97" s="88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J97" s="89"/>
       <c r="K97" s="66"/>
@@ -11666,113 +11684,105 @@
       <c r="BM97" s="66"/>
       <c r="BN97" s="66"/>
     </row>
-    <row r="98" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
-      <c r="A98" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>3.4</v>
-      </c>
-      <c r="B98" s="95" t="s">
-        <v>56</v>
-      </c>
-      <c r="C98" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="68"/>
-      <c r="E98" s="69">
-        <v>46051</v>
-      </c>
-      <c r="F98" s="70">
-        <f t="shared" si="32"/>
-        <v>46056</v>
-      </c>
-      <c r="G98" s="71">
-        <v>6</v>
-      </c>
-      <c r="H98" s="72">
-        <v>0</v>
-      </c>
-      <c r="I98" s="88">
-        <v>4</v>
-      </c>
-      <c r="J98" s="89"/>
-      <c r="K98" s="66"/>
-      <c r="L98" s="66"/>
-      <c r="M98" s="66"/>
-      <c r="N98" s="66"/>
-      <c r="O98" s="66"/>
-      <c r="P98" s="66"/>
-      <c r="Q98" s="66"/>
-      <c r="R98" s="66"/>
-      <c r="S98" s="66"/>
-      <c r="T98" s="66"/>
-      <c r="U98" s="66"/>
-      <c r="V98" s="66"/>
-      <c r="W98" s="66"/>
-      <c r="X98" s="66"/>
-      <c r="Y98" s="66"/>
-      <c r="Z98" s="66"/>
-      <c r="AA98" s="66"/>
-      <c r="AB98" s="66"/>
-      <c r="AC98" s="66"/>
-      <c r="AD98" s="66"/>
-      <c r="AE98" s="66"/>
-      <c r="AF98" s="66"/>
-      <c r="AG98" s="66"/>
-      <c r="AH98" s="66"/>
-      <c r="AI98" s="66"/>
-      <c r="AJ98" s="66"/>
-      <c r="AK98" s="66"/>
-      <c r="AL98" s="66"/>
-      <c r="AM98" s="66"/>
-      <c r="AN98" s="66"/>
-      <c r="AO98" s="66"/>
-      <c r="AP98" s="66"/>
-      <c r="AQ98" s="66"/>
-      <c r="AR98" s="66"/>
-      <c r="AS98" s="66"/>
-      <c r="AT98" s="66"/>
-      <c r="AU98" s="66"/>
-      <c r="AV98" s="66"/>
-      <c r="AW98" s="66"/>
-      <c r="AX98" s="66"/>
-      <c r="AY98" s="66"/>
-      <c r="AZ98" s="66"/>
-      <c r="BA98" s="66"/>
-      <c r="BB98" s="66"/>
-      <c r="BC98" s="66"/>
-      <c r="BD98" s="66"/>
-      <c r="BE98" s="66"/>
-      <c r="BF98" s="66"/>
-      <c r="BG98" s="66"/>
-      <c r="BH98" s="66"/>
-      <c r="BI98" s="66"/>
-      <c r="BJ98" s="66"/>
-      <c r="BK98" s="66"/>
-      <c r="BL98" s="66"/>
-      <c r="BM98" s="66"/>
-      <c r="BN98" s="66"/>
+    <row r="98" spans="1:66" s="44" customFormat="1" ht="18" hidden="1">
+      <c r="A98" s="73" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>3</v>
+      </c>
+      <c r="B98" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D98" s="75"/>
+      <c r="E98" s="76"/>
+      <c r="F98" s="76" t="str">
+        <f t="shared" ref="F98:F103" si="41">IF(ISBLANK(E98)," - ",IF(G98=0,E98,E98+G98-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G98" s="77"/>
+      <c r="H98" s="78"/>
+      <c r="I98" s="90" t="str">
+        <f t="shared" ref="I98" si="42">IF(OR(F98=0,E98=0)," - ",NETWORKDAYS(E98,F98))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J98" s="91"/>
+      <c r="K98" s="92"/>
+      <c r="L98" s="92"/>
+      <c r="M98" s="92"/>
+      <c r="N98" s="92"/>
+      <c r="O98" s="92"/>
+      <c r="P98" s="92"/>
+      <c r="Q98" s="92"/>
+      <c r="R98" s="92"/>
+      <c r="S98" s="92"/>
+      <c r="T98" s="92"/>
+      <c r="U98" s="92"/>
+      <c r="V98" s="92"/>
+      <c r="W98" s="92"/>
+      <c r="X98" s="92"/>
+      <c r="Y98" s="92"/>
+      <c r="Z98" s="92"/>
+      <c r="AA98" s="92"/>
+      <c r="AB98" s="92"/>
+      <c r="AC98" s="92"/>
+      <c r="AD98" s="92"/>
+      <c r="AE98" s="92"/>
+      <c r="AF98" s="92"/>
+      <c r="AG98" s="92"/>
+      <c r="AH98" s="92"/>
+      <c r="AI98" s="92"/>
+      <c r="AJ98" s="92"/>
+      <c r="AK98" s="92"/>
+      <c r="AL98" s="92"/>
+      <c r="AM98" s="92"/>
+      <c r="AN98" s="92"/>
+      <c r="AO98" s="92"/>
+      <c r="AP98" s="92"/>
+      <c r="AQ98" s="92"/>
+      <c r="AR98" s="92"/>
+      <c r="AS98" s="92"/>
+      <c r="AT98" s="92"/>
+      <c r="AU98" s="92"/>
+      <c r="AV98" s="92"/>
+      <c r="AW98" s="92"/>
+      <c r="AX98" s="92"/>
+      <c r="AY98" s="92"/>
+      <c r="AZ98" s="92"/>
+      <c r="BA98" s="92"/>
+      <c r="BB98" s="92"/>
+      <c r="BC98" s="92"/>
+      <c r="BD98" s="92"/>
+      <c r="BE98" s="92"/>
+      <c r="BF98" s="92"/>
+      <c r="BG98" s="92"/>
+      <c r="BH98" s="92"/>
+      <c r="BI98" s="92"/>
+      <c r="BJ98" s="92"/>
+      <c r="BK98" s="92"/>
+      <c r="BL98" s="92"/>
+      <c r="BM98" s="92"/>
+      <c r="BN98" s="92"/>
     </row>
     <row r="99" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A99" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>3.5</v>
+        <f t="shared" si="28"/>
+        <v>3.1</v>
       </c>
       <c r="B99" s="95" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C99" s="45" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D99" s="68"/>
       <c r="E99" s="69">
-        <v>46045</v>
+        <v>46041</v>
       </c>
       <c r="F99" s="70">
-        <f t="shared" si="32"/>
-        <v>46050</v>
+        <f t="shared" si="41"/>
+        <v>46044</v>
       </c>
       <c r="G99" s="71">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H99" s="72">
         <v>0</v>
@@ -11838,102 +11848,110 @@
       <c r="BM99" s="66"/>
       <c r="BN99" s="66"/>
     </row>
-    <row r="100" spans="1:66" s="44" customFormat="1" ht="18" hidden="1">
-      <c r="A100" s="73" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+    <row r="100" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
+      <c r="A100" s="66" t="str">
+        <f t="shared" si="28"/>
+        <v>3.2</v>
+      </c>
+      <c r="B100" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="68"/>
+      <c r="E100" s="69">
+        <v>46041</v>
+      </c>
+      <c r="F100" s="70">
+        <f t="shared" si="41"/>
+        <v>46044</v>
+      </c>
+      <c r="G100" s="71">
         <v>4</v>
       </c>
-      <c r="B100" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="D100" s="75"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="76" t="str">
-        <f t="shared" ref="F100:F101" si="34">IF(ISBLANK(E100)," - ",IF(G100=0,E100,E100+G100-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G100" s="77"/>
-      <c r="H100" s="78"/>
-      <c r="I100" s="90" t="str">
-        <f t="shared" ref="I100" si="35">IF(OR(F100=0,E100=0)," - ",NETWORKDAYS(E100,F100))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J100" s="91"/>
-      <c r="K100" s="92"/>
-      <c r="L100" s="92"/>
-      <c r="M100" s="92"/>
-      <c r="N100" s="92"/>
-      <c r="O100" s="92"/>
-      <c r="P100" s="92"/>
-      <c r="Q100" s="92"/>
-      <c r="R100" s="92"/>
-      <c r="S100" s="92"/>
-      <c r="T100" s="92"/>
-      <c r="U100" s="92"/>
-      <c r="V100" s="92"/>
-      <c r="W100" s="92"/>
-      <c r="X100" s="92"/>
-      <c r="Y100" s="92"/>
-      <c r="Z100" s="92"/>
-      <c r="AA100" s="92"/>
-      <c r="AB100" s="92"/>
-      <c r="AC100" s="92"/>
-      <c r="AD100" s="92"/>
-      <c r="AE100" s="92"/>
-      <c r="AF100" s="92"/>
-      <c r="AG100" s="92"/>
-      <c r="AH100" s="92"/>
-      <c r="AI100" s="92"/>
-      <c r="AJ100" s="92"/>
-      <c r="AK100" s="92"/>
-      <c r="AL100" s="92"/>
-      <c r="AM100" s="92"/>
-      <c r="AN100" s="92"/>
-      <c r="AO100" s="92"/>
-      <c r="AP100" s="92"/>
-      <c r="AQ100" s="92"/>
-      <c r="AR100" s="92"/>
-      <c r="AS100" s="92"/>
-      <c r="AT100" s="92"/>
-      <c r="AU100" s="92"/>
-      <c r="AV100" s="92"/>
-      <c r="AW100" s="92"/>
-      <c r="AX100" s="92"/>
-      <c r="AY100" s="92"/>
-      <c r="AZ100" s="92"/>
-      <c r="BA100" s="92"/>
-      <c r="BB100" s="92"/>
-      <c r="BC100" s="92"/>
-      <c r="BD100" s="92"/>
-      <c r="BE100" s="92"/>
-      <c r="BF100" s="92"/>
-      <c r="BG100" s="92"/>
-      <c r="BH100" s="92"/>
-      <c r="BI100" s="92"/>
-      <c r="BJ100" s="92"/>
-      <c r="BK100" s="92"/>
-      <c r="BL100" s="92"/>
-      <c r="BM100" s="92"/>
-      <c r="BN100" s="92"/>
+      <c r="H100" s="72">
+        <v>0</v>
+      </c>
+      <c r="I100" s="88">
+        <v>4</v>
+      </c>
+      <c r="J100" s="89"/>
+      <c r="K100" s="66"/>
+      <c r="L100" s="66"/>
+      <c r="M100" s="66"/>
+      <c r="N100" s="66"/>
+      <c r="O100" s="66"/>
+      <c r="P100" s="66"/>
+      <c r="Q100" s="66"/>
+      <c r="R100" s="66"/>
+      <c r="S100" s="66"/>
+      <c r="T100" s="66"/>
+      <c r="U100" s="66"/>
+      <c r="V100" s="66"/>
+      <c r="W100" s="66"/>
+      <c r="X100" s="66"/>
+      <c r="Y100" s="66"/>
+      <c r="Z100" s="66"/>
+      <c r="AA100" s="66"/>
+      <c r="AB100" s="66"/>
+      <c r="AC100" s="66"/>
+      <c r="AD100" s="66"/>
+      <c r="AE100" s="66"/>
+      <c r="AF100" s="66"/>
+      <c r="AG100" s="66"/>
+      <c r="AH100" s="66"/>
+      <c r="AI100" s="66"/>
+      <c r="AJ100" s="66"/>
+      <c r="AK100" s="66"/>
+      <c r="AL100" s="66"/>
+      <c r="AM100" s="66"/>
+      <c r="AN100" s="66"/>
+      <c r="AO100" s="66"/>
+      <c r="AP100" s="66"/>
+      <c r="AQ100" s="66"/>
+      <c r="AR100" s="66"/>
+      <c r="AS100" s="66"/>
+      <c r="AT100" s="66"/>
+      <c r="AU100" s="66"/>
+      <c r="AV100" s="66"/>
+      <c r="AW100" s="66"/>
+      <c r="AX100" s="66"/>
+      <c r="AY100" s="66"/>
+      <c r="AZ100" s="66"/>
+      <c r="BA100" s="66"/>
+      <c r="BB100" s="66"/>
+      <c r="BC100" s="66"/>
+      <c r="BD100" s="66"/>
+      <c r="BE100" s="66"/>
+      <c r="BF100" s="66"/>
+      <c r="BG100" s="66"/>
+      <c r="BH100" s="66"/>
+      <c r="BI100" s="66"/>
+      <c r="BJ100" s="66"/>
+      <c r="BK100" s="66"/>
+      <c r="BL100" s="66"/>
+      <c r="BM100" s="66"/>
+      <c r="BN100" s="66"/>
     </row>
     <row r="101" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
       <c r="A101" s="66" t="str">
-        <f t="shared" si="19"/>
-        <v>4.1</v>
+        <f t="shared" si="28"/>
+        <v>3.3</v>
       </c>
       <c r="B101" s="95" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C101" s="45" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D101" s="68"/>
       <c r="E101" s="69">
-        <v>46051</v>
+        <v>46045</v>
       </c>
       <c r="F101" s="70">
-        <f t="shared" si="34"/>
-        <v>46056</v>
+        <f t="shared" si="41"/>
+        <v>46050</v>
       </c>
       <c r="G101" s="71">
         <v>6</v>
@@ -12002,9 +12020,355 @@
       <c r="BM101" s="66"/>
       <c r="BN101" s="66"/>
     </row>
+    <row r="102" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
+      <c r="A102" s="66" t="str">
+        <f t="shared" si="28"/>
+        <v>3.4</v>
+      </c>
+      <c r="B102" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="68"/>
+      <c r="E102" s="69">
+        <v>46051</v>
+      </c>
+      <c r="F102" s="70">
+        <f t="shared" si="41"/>
+        <v>46056</v>
+      </c>
+      <c r="G102" s="71">
+        <v>6</v>
+      </c>
+      <c r="H102" s="72">
+        <v>0</v>
+      </c>
+      <c r="I102" s="88">
+        <v>4</v>
+      </c>
+      <c r="J102" s="89"/>
+      <c r="K102" s="66"/>
+      <c r="L102" s="66"/>
+      <c r="M102" s="66"/>
+      <c r="N102" s="66"/>
+      <c r="O102" s="66"/>
+      <c r="P102" s="66"/>
+      <c r="Q102" s="66"/>
+      <c r="R102" s="66"/>
+      <c r="S102" s="66"/>
+      <c r="T102" s="66"/>
+      <c r="U102" s="66"/>
+      <c r="V102" s="66"/>
+      <c r="W102" s="66"/>
+      <c r="X102" s="66"/>
+      <c r="Y102" s="66"/>
+      <c r="Z102" s="66"/>
+      <c r="AA102" s="66"/>
+      <c r="AB102" s="66"/>
+      <c r="AC102" s="66"/>
+      <c r="AD102" s="66"/>
+      <c r="AE102" s="66"/>
+      <c r="AF102" s="66"/>
+      <c r="AG102" s="66"/>
+      <c r="AH102" s="66"/>
+      <c r="AI102" s="66"/>
+      <c r="AJ102" s="66"/>
+      <c r="AK102" s="66"/>
+      <c r="AL102" s="66"/>
+      <c r="AM102" s="66"/>
+      <c r="AN102" s="66"/>
+      <c r="AO102" s="66"/>
+      <c r="AP102" s="66"/>
+      <c r="AQ102" s="66"/>
+      <c r="AR102" s="66"/>
+      <c r="AS102" s="66"/>
+      <c r="AT102" s="66"/>
+      <c r="AU102" s="66"/>
+      <c r="AV102" s="66"/>
+      <c r="AW102" s="66"/>
+      <c r="AX102" s="66"/>
+      <c r="AY102" s="66"/>
+      <c r="AZ102" s="66"/>
+      <c r="BA102" s="66"/>
+      <c r="BB102" s="66"/>
+      <c r="BC102" s="66"/>
+      <c r="BD102" s="66"/>
+      <c r="BE102" s="66"/>
+      <c r="BF102" s="66"/>
+      <c r="BG102" s="66"/>
+      <c r="BH102" s="66"/>
+      <c r="BI102" s="66"/>
+      <c r="BJ102" s="66"/>
+      <c r="BK102" s="66"/>
+      <c r="BL102" s="66"/>
+      <c r="BM102" s="66"/>
+      <c r="BN102" s="66"/>
+    </row>
+    <row r="103" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
+      <c r="A103" s="66" t="str">
+        <f t="shared" si="28"/>
+        <v>3.5</v>
+      </c>
+      <c r="B103" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C103" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="68"/>
+      <c r="E103" s="69">
+        <v>46045</v>
+      </c>
+      <c r="F103" s="70">
+        <f t="shared" si="41"/>
+        <v>46050</v>
+      </c>
+      <c r="G103" s="71">
+        <v>6</v>
+      </c>
+      <c r="H103" s="72">
+        <v>0</v>
+      </c>
+      <c r="I103" s="88">
+        <v>4</v>
+      </c>
+      <c r="J103" s="89"/>
+      <c r="K103" s="66"/>
+      <c r="L103" s="66"/>
+      <c r="M103" s="66"/>
+      <c r="N103" s="66"/>
+      <c r="O103" s="66"/>
+      <c r="P103" s="66"/>
+      <c r="Q103" s="66"/>
+      <c r="R103" s="66"/>
+      <c r="S103" s="66"/>
+      <c r="T103" s="66"/>
+      <c r="U103" s="66"/>
+      <c r="V103" s="66"/>
+      <c r="W103" s="66"/>
+      <c r="X103" s="66"/>
+      <c r="Y103" s="66"/>
+      <c r="Z103" s="66"/>
+      <c r="AA103" s="66"/>
+      <c r="AB103" s="66"/>
+      <c r="AC103" s="66"/>
+      <c r="AD103" s="66"/>
+      <c r="AE103" s="66"/>
+      <c r="AF103" s="66"/>
+      <c r="AG103" s="66"/>
+      <c r="AH103" s="66"/>
+      <c r="AI103" s="66"/>
+      <c r="AJ103" s="66"/>
+      <c r="AK103" s="66"/>
+      <c r="AL103" s="66"/>
+      <c r="AM103" s="66"/>
+      <c r="AN103" s="66"/>
+      <c r="AO103" s="66"/>
+      <c r="AP103" s="66"/>
+      <c r="AQ103" s="66"/>
+      <c r="AR103" s="66"/>
+      <c r="AS103" s="66"/>
+      <c r="AT103" s="66"/>
+      <c r="AU103" s="66"/>
+      <c r="AV103" s="66"/>
+      <c r="AW103" s="66"/>
+      <c r="AX103" s="66"/>
+      <c r="AY103" s="66"/>
+      <c r="AZ103" s="66"/>
+      <c r="BA103" s="66"/>
+      <c r="BB103" s="66"/>
+      <c r="BC103" s="66"/>
+      <c r="BD103" s="66"/>
+      <c r="BE103" s="66"/>
+      <c r="BF103" s="66"/>
+      <c r="BG103" s="66"/>
+      <c r="BH103" s="66"/>
+      <c r="BI103" s="66"/>
+      <c r="BJ103" s="66"/>
+      <c r="BK103" s="66"/>
+      <c r="BL103" s="66"/>
+      <c r="BM103" s="66"/>
+      <c r="BN103" s="66"/>
+    </row>
+    <row r="104" spans="1:66" s="44" customFormat="1" ht="18" hidden="1">
+      <c r="A104" s="73" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B104" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="D104" s="75"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76" t="str">
+        <f t="shared" ref="F104:F105" si="43">IF(ISBLANK(E104)," - ",IF(G104=0,E104,E104+G104-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G104" s="77"/>
+      <c r="H104" s="78"/>
+      <c r="I104" s="90" t="str">
+        <f t="shared" ref="I104" si="44">IF(OR(F104=0,E104=0)," - ",NETWORKDAYS(E104,F104))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J104" s="91"/>
+      <c r="K104" s="92"/>
+      <c r="L104" s="92"/>
+      <c r="M104" s="92"/>
+      <c r="N104" s="92"/>
+      <c r="O104" s="92"/>
+      <c r="P104" s="92"/>
+      <c r="Q104" s="92"/>
+      <c r="R104" s="92"/>
+      <c r="S104" s="92"/>
+      <c r="T104" s="92"/>
+      <c r="U104" s="92"/>
+      <c r="V104" s="92"/>
+      <c r="W104" s="92"/>
+      <c r="X104" s="92"/>
+      <c r="Y104" s="92"/>
+      <c r="Z104" s="92"/>
+      <c r="AA104" s="92"/>
+      <c r="AB104" s="92"/>
+      <c r="AC104" s="92"/>
+      <c r="AD104" s="92"/>
+      <c r="AE104" s="92"/>
+      <c r="AF104" s="92"/>
+      <c r="AG104" s="92"/>
+      <c r="AH104" s="92"/>
+      <c r="AI104" s="92"/>
+      <c r="AJ104" s="92"/>
+      <c r="AK104" s="92"/>
+      <c r="AL104" s="92"/>
+      <c r="AM104" s="92"/>
+      <c r="AN104" s="92"/>
+      <c r="AO104" s="92"/>
+      <c r="AP104" s="92"/>
+      <c r="AQ104" s="92"/>
+      <c r="AR104" s="92"/>
+      <c r="AS104" s="92"/>
+      <c r="AT104" s="92"/>
+      <c r="AU104" s="92"/>
+      <c r="AV104" s="92"/>
+      <c r="AW104" s="92"/>
+      <c r="AX104" s="92"/>
+      <c r="AY104" s="92"/>
+      <c r="AZ104" s="92"/>
+      <c r="BA104" s="92"/>
+      <c r="BB104" s="92"/>
+      <c r="BC104" s="92"/>
+      <c r="BD104" s="92"/>
+      <c r="BE104" s="92"/>
+      <c r="BF104" s="92"/>
+      <c r="BG104" s="92"/>
+      <c r="BH104" s="92"/>
+      <c r="BI104" s="92"/>
+      <c r="BJ104" s="92"/>
+      <c r="BK104" s="92"/>
+      <c r="BL104" s="92"/>
+      <c r="BM104" s="92"/>
+      <c r="BN104" s="92"/>
+    </row>
+    <row r="105" spans="1:66" s="45" customFormat="1" ht="18" hidden="1">
+      <c r="A105" s="66" t="str">
+        <f t="shared" si="28"/>
+        <v>4.1</v>
+      </c>
+      <c r="B105" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="C105" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" s="68"/>
+      <c r="E105" s="69">
+        <v>46051</v>
+      </c>
+      <c r="F105" s="70">
+        <f t="shared" si="43"/>
+        <v>46056</v>
+      </c>
+      <c r="G105" s="71">
+        <v>6</v>
+      </c>
+      <c r="H105" s="72">
+        <v>0</v>
+      </c>
+      <c r="I105" s="88">
+        <v>4</v>
+      </c>
+      <c r="J105" s="89"/>
+      <c r="K105" s="66"/>
+      <c r="L105" s="66"/>
+      <c r="M105" s="66"/>
+      <c r="N105" s="66"/>
+      <c r="O105" s="66"/>
+      <c r="P105" s="66"/>
+      <c r="Q105" s="66"/>
+      <c r="R105" s="66"/>
+      <c r="S105" s="66"/>
+      <c r="T105" s="66"/>
+      <c r="U105" s="66"/>
+      <c r="V105" s="66"/>
+      <c r="W105" s="66"/>
+      <c r="X105" s="66"/>
+      <c r="Y105" s="66"/>
+      <c r="Z105" s="66"/>
+      <c r="AA105" s="66"/>
+      <c r="AB105" s="66"/>
+      <c r="AC105" s="66"/>
+      <c r="AD105" s="66"/>
+      <c r="AE105" s="66"/>
+      <c r="AF105" s="66"/>
+      <c r="AG105" s="66"/>
+      <c r="AH105" s="66"/>
+      <c r="AI105" s="66"/>
+      <c r="AJ105" s="66"/>
+      <c r="AK105" s="66"/>
+      <c r="AL105" s="66"/>
+      <c r="AM105" s="66"/>
+      <c r="AN105" s="66"/>
+      <c r="AO105" s="66"/>
+      <c r="AP105" s="66"/>
+      <c r="AQ105" s="66"/>
+      <c r="AR105" s="66"/>
+      <c r="AS105" s="66"/>
+      <c r="AT105" s="66"/>
+      <c r="AU105" s="66"/>
+      <c r="AV105" s="66"/>
+      <c r="AW105" s="66"/>
+      <c r="AX105" s="66"/>
+      <c r="AY105" s="66"/>
+      <c r="AZ105" s="66"/>
+      <c r="BA105" s="66"/>
+      <c r="BB105" s="66"/>
+      <c r="BC105" s="66"/>
+      <c r="BD105" s="66"/>
+      <c r="BE105" s="66"/>
+      <c r="BF105" s="66"/>
+      <c r="BG105" s="66"/>
+      <c r="BH105" s="66"/>
+      <c r="BI105" s="66"/>
+      <c r="BJ105" s="66"/>
+      <c r="BK105" s="66"/>
+      <c r="BL105" s="66"/>
+      <c r="BM105" s="66"/>
+      <c r="BN105" s="66"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BH4:BN4"/>
     <mergeCell ref="AM5:AS5"/>
     <mergeCell ref="AT5:AZ5"/>
     <mergeCell ref="BA5:BG5"/>
@@ -12014,18 +12378,8 @@
     <mergeCell ref="R5:X5"/>
     <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="H8:H10 H62:H67">
+  <conditionalFormatting sqref="H8:H10 H66:H71">
     <cfRule type="dataBar" priority="166">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12053,7 +12407,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H14">
+  <conditionalFormatting sqref="H12:H15">
     <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12067,7 +12421,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H16:H19">
     <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12081,7 +12435,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
+  <conditionalFormatting sqref="H20">
     <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12095,7 +12449,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+  <conditionalFormatting sqref="H21">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12109,7 +12463,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
+  <conditionalFormatting sqref="H22">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12123,7 +12477,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="H23">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12137,7 +12491,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
+  <conditionalFormatting sqref="H24">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12151,7 +12505,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
+  <conditionalFormatting sqref="H25">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12165,7 +12519,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="H26">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12179,7 +12533,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H61">
+  <conditionalFormatting sqref="H27:H65">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12193,7 +12547,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68:H72">
+  <conditionalFormatting sqref="H72:H76">
     <cfRule type="dataBar" priority="153">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12207,7 +12561,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73:H75">
+  <conditionalFormatting sqref="H77:H79">
     <cfRule type="dataBar" priority="149">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12221,7 +12575,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="H80">
     <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12235,7 +12589,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
+  <conditionalFormatting sqref="H81">
     <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12249,7 +12603,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78:H82">
+  <conditionalFormatting sqref="H82:H86">
     <cfRule type="dataBar" priority="145">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12263,7 +12617,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83:H84">
+  <conditionalFormatting sqref="H87:H88">
     <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12277,7 +12631,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
+  <conditionalFormatting sqref="H89">
     <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12291,7 +12645,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
+  <conditionalFormatting sqref="H90">
     <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12305,7 +12659,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
+  <conditionalFormatting sqref="H91">
     <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12319,7 +12673,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
+  <conditionalFormatting sqref="H92">
     <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12333,7 +12687,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
+  <conditionalFormatting sqref="H93">
     <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12347,7 +12701,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
+  <conditionalFormatting sqref="H94">
     <cfRule type="dataBar" priority="133">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12361,7 +12715,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H91:H93">
+  <conditionalFormatting sqref="H95:H97">
     <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12375,7 +12729,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
+  <conditionalFormatting sqref="H98">
     <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12389,7 +12743,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H95:H99">
+  <conditionalFormatting sqref="H99:H103">
     <cfRule type="dataBar" priority="113">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12403,7 +12757,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H100">
+  <conditionalFormatting sqref="H104">
     <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12417,7 +12771,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H101">
+  <conditionalFormatting sqref="H105">
     <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12436,12 +12790,12 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN101">
+  <conditionalFormatting sqref="K6:BN105">
     <cfRule type="expression" dxfId="2" priority="46">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN101">
+  <conditionalFormatting sqref="K8:BN105">
     <cfRule type="expression" dxfId="1" priority="47">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
@@ -12456,8 +12810,8 @@
   <pageSetup scale="53" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A62" formula="1"/>
-    <ignoredError sqref="E62 G62:H62 H64:H66" unlockedFormula="1"/>
+    <ignoredError sqref="A66" formula="1"/>
+    <ignoredError sqref="E66 G66:H66 H68:H70" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -12505,7 +12859,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H10 H62:H67</xm:sqref>
+          <xm:sqref>H8:H10 H66:H71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9DBCF6A1-040E-42DB-8847-078569C48B8A}">
@@ -12535,7 +12889,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H12:H14</xm:sqref>
+          <xm:sqref>H12:H15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FA5CC67D-61F1-4CC3-AC50-36FEE0097B6B}">
@@ -12550,7 +12904,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H15</xm:sqref>
+          <xm:sqref>H16:H19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A15FFD4D-71F6-4F94-91C5-3D7A56139C96}">
@@ -12565,7 +12919,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H16</xm:sqref>
+          <xm:sqref>H20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EC7A5987-0317-4F8F-B036-0AAA4FFCEF18}">
@@ -12580,7 +12934,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H17</xm:sqref>
+          <xm:sqref>H21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1ABC0867-9008-4CB7-A012-4723BF84D318}">
@@ -12595,7 +12949,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H18</xm:sqref>
+          <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E8DE2DCF-2ACE-439A-B5AD-8BAA49CB0177}">
@@ -12610,7 +12964,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H19</xm:sqref>
+          <xm:sqref>H23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2D17D9C4-640A-4DBE-8963-4F7CAC60024D}">
@@ -12625,7 +12979,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H20</xm:sqref>
+          <xm:sqref>H24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{907C1B43-1215-4343-A5B6-1D914534F244}">
@@ -12640,7 +12994,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H21</xm:sqref>
+          <xm:sqref>H25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3712B26A-4D34-442F-83C9-C966D2A6F17E}">
@@ -12655,7 +13009,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H22</xm:sqref>
+          <xm:sqref>H26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BC7E2AE5-173A-48C2-B98F-7178E265808B}">
@@ -12670,7 +13024,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H23:H61</xm:sqref>
+          <xm:sqref>H27:H65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D3DB2C3F-6C47-40F8-8848-827B2A997705}">
@@ -12685,7 +13039,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H68:H72</xm:sqref>
+          <xm:sqref>H72:H76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3C42B16F-A101-4A97-868D-5B8146B1C130}">
@@ -12700,7 +13054,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H73:H75</xm:sqref>
+          <xm:sqref>H77:H79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{95297AF6-74B6-45A3-8917-B1B696C9161B}">
@@ -12715,7 +13069,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H76</xm:sqref>
+          <xm:sqref>H80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2D435DCA-F0F5-4AE4-AA8B-9FC0907B9986}">
@@ -12730,7 +13084,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H77</xm:sqref>
+          <xm:sqref>H81</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{09DABF8A-BD08-4C92-845E-E7AAD159D374}">
@@ -12745,7 +13099,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H78:H82</xm:sqref>
+          <xm:sqref>H82:H86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B21B1AD0-95C6-4399-A847-B94749D393A8}">
@@ -12760,7 +13114,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H83:H84</xm:sqref>
+          <xm:sqref>H87:H88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{98F1A4B0-A001-42E2-8DE0-E6D7F5D6E540}">
@@ -12775,7 +13129,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H85</xm:sqref>
+          <xm:sqref>H89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{10EB3915-CCE8-4C24-8987-0286556DCB28}">
@@ -12790,7 +13144,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H86</xm:sqref>
+          <xm:sqref>H90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5118D0D2-5AC0-4660-B543-87D1DAFE9F4B}">
@@ -12805,7 +13159,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H87</xm:sqref>
+          <xm:sqref>H91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{68765232-9793-455A-8466-C71FDEA78B82}">
@@ -12820,7 +13174,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H88</xm:sqref>
+          <xm:sqref>H92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{45131D56-85BF-4A2C-8EE8-538D1B5E223C}">
@@ -12835,7 +13189,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H89</xm:sqref>
+          <xm:sqref>H93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{74064339-B963-47EA-87E8-2B884F59CF6B}">
@@ -12850,7 +13204,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H90</xm:sqref>
+          <xm:sqref>H94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{409F0501-C7EF-40E7-8630-1268448E74EB}">
@@ -12865,7 +13219,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H91:H93</xm:sqref>
+          <xm:sqref>H95:H97</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8B977969-9EAC-4FFC-B673-BD8EC0F829F9}">
@@ -12880,7 +13234,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H94</xm:sqref>
+          <xm:sqref>H98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B502B2EA-46E0-4770-89C1-BE08E83EC7AB}">
@@ -12895,7 +13249,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H95:H99</xm:sqref>
+          <xm:sqref>H99:H103</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{278381FD-084D-48F8-8C3E-ED8A470CB7F5}">
@@ -12910,7 +13264,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H100</xm:sqref>
+          <xm:sqref>H104</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{087D2E0B-0BF5-4922-A951-DE98CD967E81}">
@@ -12925,7 +13279,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H101</xm:sqref>
+          <xm:sqref>H105</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -13178,10 +13532,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="18">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="110"/>
+      <c r="B13" s="113"/>
     </row>
     <row r="15" spans="1:3" s="11" customFormat="1" ht="18">
       <c r="A15" s="19"/>
@@ -13242,10 +13596,10 @@
       <c r="B23" s="25"/>
     </row>
     <row r="24" spans="1:3" ht="18">
-      <c r="A24" s="110" t="s">
+      <c r="A24" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="110"/>
+      <c r="B24" s="113"/>
     </row>
     <row r="25" spans="1:3" ht="43.5">
       <c r="A25" s="22"/>
@@ -13318,10 +13672,10 @@
       <c r="B37" s="25"/>
     </row>
     <row r="38" spans="1:2" ht="18">
-      <c r="A38" s="110" t="s">
+      <c r="A38" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="110"/>
+      <c r="B38" s="113"/>
     </row>
     <row r="39" spans="1:2" ht="28.5">
       <c r="B39" s="20" t="s">
@@ -13352,10 +13706,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="18">
-      <c r="A49" s="110" t="s">
+      <c r="A49" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="110"/>
+      <c r="B49" s="113"/>
     </row>
     <row r="50" spans="1:2" ht="28.5">
       <c r="B50" s="20" t="s">
@@ -13450,10 +13804,10 @@
       <c r="B64" s="31"/>
     </row>
     <row r="65" spans="1:2" ht="18">
-      <c r="A65" s="110" t="s">
+      <c r="A65" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="B65" s="110"/>
+      <c r="B65" s="113"/>
     </row>
     <row r="66" spans="1:2" ht="42.75">
       <c r="B66" s="20" t="s">
@@ -13461,10 +13815,10 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="18">
-      <c r="A68" s="110" t="s">
+      <c r="A68" s="113" t="s">
         <v>147</v>
       </c>
-      <c r="B68" s="110"/>
+      <c r="B68" s="113"/>
     </row>
     <row r="69" spans="1:2" ht="15">
       <c r="A69" s="32" t="s">
